--- a/collapsed_similarity_results_colored.xlsx
+++ b/collapsed_similarity_results_colored.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D125"/>
+  <dimension ref="A1:D467"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,38 +470,34 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Bajta - Britto_2016</t>
+          <t>Bajta - Britto_2017</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>estimated value - estimator</t>
+          <t>risk - risk level</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.8411375880241394</v>
+        <v>0.9063774943351746</v>
       </c>
       <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Bajta - Britto_2016</t>
+          <t>Bajta - Britto_2017</t>
         </is>
       </c>
       <c r="B3" s="1" t="inlineStr">
         <is>
-          <t>temporal distance - temporal distance</t>
+          <t>hardware - technical factors</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1.00000011920929</v>
-      </c>
-      <c r="D3" s="2" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
+        <v>0.707269549369812</v>
+      </c>
+      <c r="D3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -509,13 +505,13 @@
           <t>Bajta - Britto_2017</t>
         </is>
       </c>
-      <c r="B4" s="3" t="inlineStr">
-        <is>
-          <t>reliability - reliability level</t>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>hardware - platform support level</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.8990310430526733</v>
+        <v>0.7130677700042725</v>
       </c>
       <c r="D4" t="inlineStr"/>
     </row>
@@ -525,13 +521,13 @@
           <t>Bajta - Britto_2017</t>
         </is>
       </c>
-      <c r="B5" s="3" t="inlineStr">
-        <is>
-          <t>risk - risk level</t>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>design - architecture</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.9076746702194214</v>
+        <v>0.7788975834846497</v>
       </c>
       <c r="D5" t="inlineStr"/>
     </row>
@@ -541,13 +537,13 @@
           <t>Bajta - Britto_2017</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
-        <is>
-          <t>number of team members - team size</t>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>maintainability - portability level</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.906074047088623</v>
+        <v>0.7001724243164062</v>
       </c>
       <c r="D6" t="inlineStr"/>
     </row>
@@ -557,13 +553,13 @@
           <t>Bajta - Britto_2017</t>
         </is>
       </c>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>maintainability - maintainability level</t>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>maintainability - installability level</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.9313946962356567</v>
+        <v>0.7011854648590088</v>
       </c>
       <c r="D7" t="inlineStr"/>
     </row>
@@ -573,13 +569,13 @@
           <t>Bajta - Britto_2017</t>
         </is>
       </c>
-      <c r="B8" s="3" t="inlineStr">
-        <is>
-          <t>security - security level</t>
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>maintainability - maintainability level</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.8792281746864319</v>
+        <v>0.9333113431930542</v>
       </c>
       <c r="D8" t="inlineStr"/>
     </row>
@@ -589,505 +585,461 @@
           <t>Bajta - Britto_2017</t>
         </is>
       </c>
-      <c r="B9" s="3" t="inlineStr">
-        <is>
-          <t>availability - availability level</t>
+      <c r="B9" s="1" t="inlineStr">
+        <is>
+          <t>maintainability - reliability level</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.9174187183380127</v>
+        <v>0.7455884218215942</v>
       </c>
       <c r="D9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Bajta - Dasthi</t>
-        </is>
-      </c>
-      <c r="B10" s="3" t="inlineStr">
-        <is>
-          <t>expert judgment - expert judgment</t>
+          <t>Bajta - Britto_2017</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="inlineStr">
+        <is>
+          <t>maintainability - reusability level</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.9996423125267029</v>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
+        <v>0.7120570540428162</v>
+      </c>
+      <c r="D10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Bajta - Dasthi</t>
+          <t>Bajta - Britto_2017</t>
         </is>
       </c>
       <c r="B11" s="1" t="inlineStr">
         <is>
-          <t>cocomo - cocomo</t>
+          <t>size report - team size</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.9977432489395142</v>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
+        <v>0.7020217180252075</v>
+      </c>
+      <c r="D11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Bajta - Usman</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>reliability - reliability</t>
+          <t>Bajta - Britto_2017</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="inlineStr">
+        <is>
+          <t>performance - time efficiency level</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.9997813105583191</v>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
+        <v>0.7183018922805786</v>
+      </c>
+      <c r="D12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Bajta - Usman</t>
-        </is>
-      </c>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>reliability - maintainability</t>
+          <t>Bajta - Britto_2017</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="inlineStr">
+        <is>
+          <t>performance - process efficiency level</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.8068212866783142</v>
+        <v>0.7081760168075562</v>
       </c>
       <c r="D13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Bajta - Usman</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>analysis - analysis</t>
+          <t>Bajta - Britto_2017</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="inlineStr">
+        <is>
+          <t>performance - quality level</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.9992785453796387</v>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
+        <v>0.7170475125312805</v>
+      </c>
+      <c r="D14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Bajta - Usman</t>
+          <t>Bajta - Britto_2017</t>
         </is>
       </c>
       <c r="B15" s="1" t="inlineStr">
         <is>
-          <t>near offshore - far offshore</t>
+          <t>availability - availability level</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.9466040730476379</v>
+        <v>0.9153699278831482</v>
       </c>
       <c r="D15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Bajta - Usman</t>
+          <t>Bajta - Britto_2017</t>
         </is>
       </c>
       <c r="B16" s="1" t="inlineStr">
         <is>
-          <t>near offshore - close onshore</t>
+          <t>availability - reliability level</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.8031231164932251</v>
+        <v>0.7008758783340454</v>
       </c>
       <c r="D16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Bajta - Usman</t>
+          <t>Bajta - Britto_2017</t>
         </is>
       </c>
       <c r="B17" s="1" t="inlineStr">
         <is>
-          <t>near offshore - near offshore</t>
+          <t>individual - personality</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.999311089515686</v>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
+        <v>0.7180882692337036</v>
+      </c>
+      <c r="D17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Bajta - Usman</t>
+          <t>Bajta - Britto_2017</t>
         </is>
       </c>
       <c r="B18" s="1" t="inlineStr">
         <is>
-          <t>near offshore - distant onshore</t>
+          <t>security - security level</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.8851130604743958</v>
+        <v>0.8816400766372681</v>
       </c>
       <c r="D18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Bajta - Usman</t>
+          <t>Bajta - Britto_2017</t>
         </is>
       </c>
       <c r="B19" s="1" t="inlineStr">
         <is>
-          <t>number of team members - no. of team members</t>
+          <t>reliability - robustness level</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.992394745349884</v>
+        <v>0.7291364073753357</v>
       </c>
       <c r="D19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Bajta - Usman</t>
+          <t>Bajta - Britto_2017</t>
         </is>
       </c>
       <c r="B20" s="1" t="inlineStr">
         <is>
-          <t>performance - performance</t>
+          <t>reliability - maintainability level</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.9974895119667053</v>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
+        <v>0.7468509078025818</v>
+      </c>
+      <c r="D20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Bajta - Usman</t>
-        </is>
-      </c>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>finance - financial</t>
+          <t>Bajta - Britto_2017</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>reliability - reliability level</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.8895425796508789</v>
+        <v>0.9016155004501343</v>
       </c>
       <c r="D21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Bajta - Usman</t>
-        </is>
-      </c>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>value - value</t>
+          <t>Bajta - Britto_2017</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>testing - testability level</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.999534547328949</v>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
+        <v>0.7944705486297607</v>
+      </c>
+      <c r="D22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Bajta - Usman</t>
+          <t>Bajta - Britto_2017</t>
         </is>
       </c>
       <c r="B23" s="1" t="inlineStr">
         <is>
-          <t>distant onshore - far offshore</t>
+          <t>effort hours - time efficiency level</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.8858963251113892</v>
+        <v>0.7378262281417847</v>
       </c>
       <c r="D23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Bajta - Usman</t>
+          <t>Bajta - Britto_2017</t>
         </is>
       </c>
       <c r="B24" s="1" t="inlineStr">
         <is>
-          <t>distant onshore - close onshore</t>
+          <t>maintenance - maintainability level</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.8277899026870728</v>
+        <v>0.7700716257095337</v>
       </c>
       <c r="D24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Bajta - Usman</t>
+          <t>Bajta - Britto_2017</t>
         </is>
       </c>
       <c r="B25" s="1" t="inlineStr">
         <is>
-          <t>distant onshore - near offshore</t>
+          <t>no of team members - team capability</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.8924033641815186</v>
+        <v>0.7669906616210938</v>
       </c>
       <c r="D25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Bajta - Usman</t>
+          <t>Bajta - Britto_2017</t>
         </is>
       </c>
       <c r="B26" s="1" t="inlineStr">
         <is>
-          <t>distant onshore - distant onshore</t>
+          <t>no of team members - work team level</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.9996622800827026</v>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
+        <v>0.7891374230384827</v>
+      </c>
+      <c r="D26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Bajta - Usman</t>
-        </is>
-      </c>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>expert judgment - expert judgement</t>
+          <t>Bajta - Britto_2017</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>no of team members - team size</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.9841880798339844</v>
+        <v>0.9020061492919922</v>
       </c>
       <c r="D27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Bajta - Usman</t>
-        </is>
-      </c>
-      <c r="B28" s="3" t="inlineStr">
-        <is>
-          <t>maintainability - reliability</t>
+          <t>Bajta - Britto_2016</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>estimate value - estimator &amp; provider</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.8074816465377808</v>
+        <v>0.7849944233894348</v>
       </c>
       <c r="D28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Bajta - Usman</t>
-        </is>
-      </c>
-      <c r="B29" s="3" t="inlineStr">
-        <is>
-          <t>maintainability - maintainability</t>
+          <t>Bajta - Britto_2016</t>
+        </is>
+      </c>
+      <c r="B29" s="1" t="inlineStr">
+        <is>
+          <t>estimate value - estimator</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.9997862577438354</v>
-      </c>
-      <c r="D29" s="2" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
+        <v>0.8444365262985229</v>
+      </c>
+      <c r="D29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Bajta - Usman</t>
-        </is>
-      </c>
-      <c r="B30" s="3" t="inlineStr">
-        <is>
-          <t>maintainability - maintenance</t>
+          <t>Bajta - Britto_2016</t>
+        </is>
+      </c>
+      <c r="B30" s="1" t="inlineStr">
+        <is>
+          <t>temporal distance - relationship.geographic distance</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.8263787627220154</v>
+        <v>0.7271990776062012</v>
       </c>
       <c r="D30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Bajta - Usman</t>
-        </is>
-      </c>
-      <c r="B31" s="3" t="inlineStr">
-        <is>
-          <t>security - security</t>
+          <t>Bajta - Britto_2016</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>temporal distance - site.temporal distance</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.9994022250175476</v>
-      </c>
-      <c r="D31" s="2" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
+        <v>0.8446595072746277</v>
+      </c>
+      <c r="D31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Bajta - Usman</t>
+          <t>Bajta - Britto_2016</t>
         </is>
       </c>
       <c r="B32" s="1" t="inlineStr">
         <is>
-          <t>healthcare - health</t>
+          <t>temporal distance - relationship.temporal distance</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.8521137237548828</v>
+        <v>0.8855767250061035</v>
       </c>
       <c r="D32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Bajta - Usman</t>
+          <t>Bajta - Britto_2016</t>
         </is>
       </c>
       <c r="B33" s="1" t="inlineStr">
         <is>
-          <t>not considered - not applicable</t>
+          <t>geographical distance - relationship.geographic distance</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.8074299097061157</v>
+        <v>0.8691720962524414</v>
       </c>
       <c r="D33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Bajta - Usman</t>
+          <t>Bajta - Britto_2016</t>
         </is>
       </c>
       <c r="B34" s="1" t="inlineStr">
         <is>
-          <t>not considered - not considered</t>
+          <t>geographical distance - site.geographic distance</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.9997676014900208</v>
-      </c>
-      <c r="D34" s="2" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
+        <v>0.8135297894477844</v>
+      </c>
+      <c r="D34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Bajta - Usman</t>
+          <t>Bajta - Britto_2016</t>
         </is>
       </c>
       <c r="B35" s="1" t="inlineStr">
         <is>
-          <t>not considered - considered</t>
+          <t>geographical distance - site.temporal distance</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.8922649025917053</v>
+        <v>0.7441734671592712</v>
       </c>
       <c r="D35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Bajta - Usman</t>
+          <t>Bajta - Britto_2016</t>
         </is>
       </c>
       <c r="B36" s="1" t="inlineStr">
         <is>
-          <t>maintenance - maintainability</t>
+          <t>geographical distance - relationship.temporal distance</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.8293272256851196</v>
+        <v>0.7776802182197571</v>
       </c>
       <c r="D36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Bajta - Usman</t>
+          <t>Bajta - Dasthi</t>
         </is>
       </c>
       <c r="B37" s="1" t="inlineStr">
         <is>
-          <t>maintenance - maintenance</t>
+          <t>constructive cost model - constructive cost model</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.9999336004257202</v>
+        <v>0.9986832737922668</v>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
@@ -1098,32 +1050,32 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Bajta - Usman</t>
+          <t>Bajta - Dasthi</t>
         </is>
       </c>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>estimated value - estimate value(s)</t>
+          <t>fuzzy similar - fuzzy logic</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.9305617809295654</v>
+        <v>0.7582830190658569</v>
       </c>
       <c r="D38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Bajta - Usman</t>
+          <t>Bajta - Dasthi</t>
         </is>
       </c>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>availability - availability</t>
+          <t>expert judgment - expert judgment</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.9996330738067627</v>
+        <v>0.9996162056922913</v>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
@@ -1134,852 +1086,848 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Bajta - Usman</t>
+          <t>Bajta - Dasthi</t>
         </is>
       </c>
       <c r="B40" s="1" t="inlineStr">
         <is>
-          <t>testing - testing</t>
+          <t>machine learning - artificial neural networks</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.9994996190071106</v>
-      </c>
-      <c r="D40" s="2" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
+        <v>0.7277299761772156</v>
+      </c>
+      <c r="D40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Bajta - Usman</t>
-        </is>
-      </c>
-      <c r="B41" s="3" t="inlineStr">
-        <is>
-          <t>design - design</t>
+          <t>Bajta - Mendes</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>not considered - validated theoretically</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.9990330934524536</v>
-      </c>
-      <c r="D41" s="2" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
+        <v>0.7152584195137024</v>
+      </c>
+      <c r="D41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Bajta - Usman</t>
+          <t>Bajta - Mendes</t>
         </is>
       </c>
       <c r="B42" s="1" t="inlineStr">
         <is>
-          <t>bidding - bidding</t>
+          <t>size report - early size metric</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.9996069669723511</v>
-      </c>
-      <c r="D42" s="2" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
+        <v>0.7613055109977722</v>
+      </c>
+      <c r="D42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Bajta - Usman</t>
-        </is>
-      </c>
-      <c r="B43" s="3" t="inlineStr">
-        <is>
-          <t>statistical analysis - analysis</t>
+          <t>Bajta - Mendes</t>
+        </is>
+      </c>
+      <c r="B43" s="1" t="inlineStr">
+        <is>
+          <t>size report - late size metric</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.8280991315841675</v>
+        <v>0.7081782221794128</v>
       </c>
       <c r="D43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Bajta - Usman</t>
-        </is>
-      </c>
-      <c r="B44" s="3" t="inlineStr">
-        <is>
-          <t>implementation - implementation</t>
+          <t>Bajta - Mendes</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>implementation - functionality</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.999531626701355</v>
-      </c>
-      <c r="D44" s="2" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
+        <v>0.7391548156738281</v>
+      </c>
+      <c r="D44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Britto_2016 - Bajta</t>
+          <t>Bajta - Mendes</t>
         </is>
       </c>
       <c r="B45" s="1" t="inlineStr">
         <is>
-          <t>estimator - estimated value</t>
+          <t>performance - functionality</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.841137707233429</v>
+        <v>0.7225004434585571</v>
       </c>
       <c r="D45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Britto_2016 - Bajta</t>
+          <t>Bajta - Mendes</t>
         </is>
       </c>
       <c r="B46" s="1" t="inlineStr">
         <is>
-          <t>temporal distance - temporal distance</t>
+          <t>considered - validated theoretically</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>1.00000011920929</v>
-      </c>
-      <c r="D46" s="2" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
+        <v>0.7387983798980713</v>
+      </c>
+      <c r="D46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Britto_2016 - Usman</t>
-        </is>
-      </c>
-      <c r="B47" s="3" t="inlineStr">
-        <is>
-          <t>distributed - distribution</t>
+          <t>Bajta - Usman</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>estimate value - estimation entity.other</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.8047651052474976</v>
+        <v>0.7749200463294983</v>
       </c>
       <c r="D47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Britto_2016 - Usman</t>
-        </is>
-      </c>
-      <c r="B48" s="3" t="inlineStr">
-        <is>
-          <t>estimator - estimate value(s)</t>
+          <t>Bajta - Usman</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>estimate value - number of entities estimated.value</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.8328943252563477</v>
+        <v>0.7951658964157104</v>
       </c>
       <c r="D48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Britto_2017 - Bajta</t>
-        </is>
-      </c>
-      <c r="B49" s="3" t="inlineStr">
-        <is>
-          <t>team size - number of team members</t>
+          <t>Bajta - Usman</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>estimate value - estimation techniques.other</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.9060739874839783</v>
+        <v>0.787980318069458</v>
       </c>
       <c r="D49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Britto_2017 - Bajta</t>
-        </is>
-      </c>
-      <c r="B50" s="3" t="inlineStr">
-        <is>
-          <t>security level - security</t>
+          <t>Bajta - Usman</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>estimate value - estimate value(s)</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.8792280554771423</v>
+        <v>0.9514560699462891</v>
       </c>
       <c r="D50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Britto_2017 - Bajta</t>
-        </is>
-      </c>
-      <c r="B51" s="3" t="inlineStr">
-        <is>
-          <t>risk level - risk</t>
+          <t>Bajta - Usman</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>estimate value - actual effort.value</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.9076744318008423</v>
+        <v>0.7177343964576721</v>
       </c>
       <c r="D51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Britto_2017 - Bajta</t>
-        </is>
-      </c>
-      <c r="B52" s="3" t="inlineStr">
-        <is>
-          <t>maintainability level - maintainability</t>
+          <t>Bajta - Usman</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>not considered - not considered</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0.9313950538635254</v>
-      </c>
-      <c r="D52" t="inlineStr"/>
+        <v>0.9990763068199158</v>
+      </c>
+      <c r="D52" s="2" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Britto_2017 - Bajta</t>
-        </is>
-      </c>
-      <c r="B53" s="3" t="inlineStr">
-        <is>
-          <t>reliability level - reliability</t>
+          <t>Bajta - Usman</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>not considered - not used</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0.8990310430526733</v>
+        <v>0.752226710319519</v>
       </c>
       <c r="D53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Britto_2017 - Bajta</t>
-        </is>
-      </c>
-      <c r="B54" s="3" t="inlineStr">
-        <is>
-          <t>availability level - availability</t>
+          <t>Bajta - Usman</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>not considered - considered</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0.9174187183380127</v>
+        <v>0.8911197185516357</v>
       </c>
       <c r="D54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Britto_2017 - Mendes</t>
-        </is>
-      </c>
-      <c r="B55" s="3" t="inlineStr">
-        <is>
-          <t>total complexity - complexity</t>
+          <t>Bajta - Usman</t>
+        </is>
+      </c>
+      <c r="B55" s="1" t="inlineStr">
+        <is>
+          <t>not considered - not applicable</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0.9372512698173523</v>
+        <v>0.8105612993240356</v>
       </c>
       <c r="D55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Britto_2017 - Mendes</t>
-        </is>
-      </c>
-      <c r="B56" s="3" t="inlineStr">
-        <is>
-          <t>class complexity - complexity</t>
+          <t>Bajta - Usman</t>
+        </is>
+      </c>
+      <c r="B56" s="1" t="inlineStr">
+        <is>
+          <t>agile - customized scrum</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>0.8611705303192139</v>
+        <v>0.7012645602226257</v>
       </c>
       <c r="D56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Britto_2017 - Mendes</t>
-        </is>
-      </c>
-      <c r="B57" s="3" t="inlineStr">
-        <is>
-          <t>component complexity - complexity</t>
+          <t>Bajta - Usman</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>agile - scrum</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>0.842913031578064</v>
+        <v>0.7592175602912903</v>
       </c>
       <c r="D57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Britto_2017 - Mendes</t>
-        </is>
-      </c>
-      <c r="B58" s="3" t="inlineStr">
-        <is>
-          <t>output complexity - complexity</t>
+          <t>Bajta - Usman</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>group-based estimation - estimation techniques.other</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0.8517101407051086</v>
+        <v>0.7344240546226501</v>
       </c>
       <c r="D58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Britto_2017 - Mendes</t>
-        </is>
-      </c>
-      <c r="B59" s="3" t="inlineStr">
-        <is>
-          <t>media allocation - media</t>
+          <t>Bajta - Usman</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>telecommunication - communications industry</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>0.8034267425537109</v>
+        <v>0.8585131168365479</v>
       </c>
       <c r="D59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Britto_2017 - Mendes</t>
-        </is>
-      </c>
-      <c r="B60" s="3" t="inlineStr">
-        <is>
-          <t>input complexity - complexity</t>
+          <t>Bajta - Usman</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>near offshore - distributed: far offshore</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>0.8573856949806213</v>
+        <v>0.8222166895866394</v>
       </c>
       <c r="D60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Britto_2017 - Mendes</t>
-        </is>
-      </c>
-      <c r="B61" s="3" t="inlineStr">
-        <is>
-          <t>cyclomatic complexity - complexity</t>
+          <t>Bajta - Usman</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>near offshore - distributed: distant onshore</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>0.8228548169136047</v>
+        <v>0.8129633665084839</v>
       </c>
       <c r="D61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Britto_2017 - Mendes</t>
-        </is>
-      </c>
-      <c r="B62" s="3" t="inlineStr">
-        <is>
-          <t>media count - media</t>
+          <t>Bajta - Usman</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>near offshore - distributed: near offshore</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0.8125474452972412</v>
+        <v>0.8869699239730835</v>
       </c>
       <c r="D62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Britto_2017 - Mendes</t>
-        </is>
-      </c>
-      <c r="B63" s="3" t="inlineStr">
-        <is>
-          <t>new complexity - complexity</t>
+          <t>Bajta - Usman</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>near offshore - distributed: close onshore</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0.9409509897232056</v>
+        <v>0.8081480264663696</v>
       </c>
       <c r="D63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Britto_2017 - Usman</t>
-        </is>
-      </c>
-      <c r="B64" s="3" t="inlineStr">
-        <is>
-          <t>team size - no. of team members</t>
+          <t>Bajta - Usman</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>design - design</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>0.8909369707107544</v>
-      </c>
-      <c r="D64" t="inlineStr"/>
+        <v>0.9980474710464478</v>
+      </c>
+      <c r="D64" s="2" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Britto_2017 - Usman</t>
+          <t>Bajta - Usman</t>
         </is>
       </c>
       <c r="B65" s="3" t="inlineStr">
         <is>
-          <t>security level - security</t>
+          <t>maintainability - maintainability</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>0.8808646202087402</v>
-      </c>
-      <c r="D65" t="inlineStr"/>
+        <v>0.9992327690124512</v>
+      </c>
+      <c r="D65" s="2" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Britto_2017 - Usman</t>
+          <t>Bajta - Usman</t>
         </is>
       </c>
       <c r="B66" s="3" t="inlineStr">
         <is>
-          <t>maintainability level - maintainability</t>
+          <t>maintainability - availability</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>0.9301713705062866</v>
+        <v>0.7201300859451294</v>
       </c>
       <c r="D66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Britto_2017 - Usman</t>
+          <t>Bajta - Usman</t>
         </is>
       </c>
       <c r="B67" s="3" t="inlineStr">
         <is>
-          <t>reliability level - reliability</t>
+          <t>maintainability - reliability</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>0.8983274698257446</v>
+        <v>0.8082497715950012</v>
       </c>
       <c r="D67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Britto_2017 - Usman</t>
+          <t>Bajta - Usman</t>
         </is>
       </c>
       <c r="B68" s="3" t="inlineStr">
         <is>
-          <t>availability level - availability</t>
+          <t>maintainability - maintenance</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>0.9160313010215759</v>
+        <v>0.8295068740844727</v>
       </c>
       <c r="D68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Dasthi - Bajta</t>
+          <t>Bajta - Usman</t>
         </is>
       </c>
       <c r="B69" s="3" t="inlineStr">
         <is>
-          <t>cocomo - cocomo</t>
+          <t>healthcare - health</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>0.9977432489395142</v>
-      </c>
-      <c r="D69" s="2" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
+        <v>0.8557877540588379</v>
+      </c>
+      <c r="D69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Dasthi - Bajta</t>
-        </is>
-      </c>
-      <c r="B70" s="1" t="inlineStr">
-        <is>
-          <t>expert judgment - expert judgment</t>
+          <t>Bajta - Usman</t>
+        </is>
+      </c>
+      <c r="B70" s="3" t="inlineStr">
+        <is>
+          <t>size report - size.other</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>0.9996422529220581</v>
-      </c>
-      <c r="D70" s="2" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
+        <v>0.7925472855567932</v>
+      </c>
+      <c r="D70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Dasthi - Usman</t>
+          <t>Bajta - Usman</t>
         </is>
       </c>
       <c r="B71" s="3" t="inlineStr">
         <is>
-          <t>analogy base - analogy</t>
+          <t>implementation - implementation</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>0.8997214436531067</v>
-      </c>
-      <c r="D71" t="inlineStr"/>
+        <v>0.998166024684906</v>
+      </c>
+      <c r="D71" s="2" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Dasthi - Usman</t>
+          <t>Bajta - Usman</t>
         </is>
       </c>
       <c r="B72" s="3" t="inlineStr">
         <is>
-          <t>expert judgment - expert judgement</t>
+          <t>implementation - performance</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>0.9845337867736816</v>
+        <v>0.7075312733650208</v>
       </c>
       <c r="D72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Mendes - Britto_2017</t>
-        </is>
-      </c>
-      <c r="B73" s="3" t="inlineStr">
-        <is>
-          <t>media - media allocation</t>
+          <t>Bajta - Usman</t>
+        </is>
+      </c>
+      <c r="B73" s="1" t="inlineStr">
+        <is>
+          <t>performance - implementation</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>0.8034267425537109</v>
+        <v>0.7070645093917847</v>
       </c>
       <c r="D73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Mendes - Britto_2017</t>
-        </is>
-      </c>
-      <c r="B74" s="3" t="inlineStr">
-        <is>
-          <t>media - media count</t>
+          <t>Bajta - Usman</t>
+        </is>
+      </c>
+      <c r="B74" s="1" t="inlineStr">
+        <is>
+          <t>performance - performance</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>0.8125476241111755</v>
-      </c>
-      <c r="D74" t="inlineStr"/>
+        <v>0.9984179139137268</v>
+      </c>
+      <c r="D74" s="2" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Mendes - Britto_2017</t>
-        </is>
-      </c>
-      <c r="B75" s="3" t="inlineStr">
-        <is>
-          <t>complexity - total complexity</t>
+          <t>Bajta - Usman</t>
+        </is>
+      </c>
+      <c r="B75" s="1" t="inlineStr">
+        <is>
+          <t>performance - analysis</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>0.9372512102127075</v>
+        <v>0.7127648591995239</v>
       </c>
       <c r="D75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Mendes - Britto_2017</t>
-        </is>
-      </c>
-      <c r="B76" s="3" t="inlineStr">
-        <is>
-          <t>complexity - class complexity</t>
+          <t>Bajta - Usman</t>
+        </is>
+      </c>
+      <c r="B76" s="1" t="inlineStr">
+        <is>
+          <t>execution - task</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>0.8611705303192139</v>
+        <v>0.7058833837509155</v>
       </c>
       <c r="D76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Mendes - Britto_2017</t>
-        </is>
-      </c>
-      <c r="B77" s="3" t="inlineStr">
-        <is>
-          <t>complexity - component complexity</t>
+          <t>Bajta - Usman</t>
+        </is>
+      </c>
+      <c r="B77" s="1" t="inlineStr">
+        <is>
+          <t>execution - implementation</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>0.8429129123687744</v>
+        <v>0.764880895614624</v>
       </c>
       <c r="D77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Mendes - Britto_2017</t>
-        </is>
-      </c>
-      <c r="B78" s="3" t="inlineStr">
-        <is>
-          <t>complexity - output complexity</t>
+          <t>Bajta - Usman</t>
+        </is>
+      </c>
+      <c r="B78" s="1" t="inlineStr">
+        <is>
+          <t>finance - financial</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>0.8517100811004639</v>
+        <v>0.8919346928596497</v>
       </c>
       <c r="D78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Mendes - Britto_2017</t>
-        </is>
-      </c>
-      <c r="B79" s="3" t="inlineStr">
-        <is>
-          <t>complexity - input complexity</t>
+          <t>Bajta - Usman</t>
+        </is>
+      </c>
+      <c r="B79" s="1" t="inlineStr">
+        <is>
+          <t>analysis - performance</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>0.8573856949806213</v>
+        <v>0.7094690799713135</v>
       </c>
       <c r="D79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Mendes - Britto_2017</t>
-        </is>
-      </c>
-      <c r="B80" s="3" t="inlineStr">
-        <is>
-          <t>complexity - cyclomatic complexity</t>
+          <t>Bajta - Usman</t>
+        </is>
+      </c>
+      <c r="B80" s="1" t="inlineStr">
+        <is>
+          <t>analysis - analysis</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>0.8228548169136047</v>
-      </c>
-      <c r="D80" t="inlineStr"/>
+        <v>0.9993883371353149</v>
+      </c>
+      <c r="D80" s="2" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Mendes - Britto_2017</t>
-        </is>
-      </c>
-      <c r="B81" s="3" t="inlineStr">
-        <is>
-          <t>complexity - new complexity</t>
+          <t>Bajta - Usman</t>
+        </is>
+      </c>
+      <c r="B81" s="1" t="inlineStr">
+        <is>
+          <t>analysis - considered</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>0.9409511685371399</v>
+        <v>0.7034972310066223</v>
       </c>
       <c r="D81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Mendes - Usman</t>
-        </is>
-      </c>
-      <c r="B82" s="3" t="inlineStr">
-        <is>
-          <t>other - other</t>
+          <t>Bajta - Usman</t>
+        </is>
+      </c>
+      <c r="B82" s="1" t="inlineStr">
+        <is>
+          <t>availability - maintainability</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>0.9990108013153076</v>
-      </c>
-      <c r="D82" s="2" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
+        <v>0.7220288515090942</v>
+      </c>
+      <c r="D82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Usman - Bajta</t>
+          <t>Bajta - Usman</t>
         </is>
       </c>
       <c r="B83" s="1" t="inlineStr">
         <is>
-          <t>far offshore - near offshore</t>
+          <t>availability - availability</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>0.9466040730476379</v>
-      </c>
-      <c r="D83" t="inlineStr"/>
+        <v>0.9965998530387878</v>
+      </c>
+      <c r="D83" s="2" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Usman - Bajta</t>
+          <t>Bajta - Usman</t>
         </is>
       </c>
       <c r="B84" s="1" t="inlineStr">
         <is>
-          <t>far offshore - distant onshore</t>
+          <t>availability - reliability</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>0.8858963251113892</v>
+        <v>0.7315148115158081</v>
       </c>
       <c r="D84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Usman - Bajta</t>
+          <t>Bajta - Usman</t>
         </is>
       </c>
       <c r="B85" s="1" t="inlineStr">
         <is>
-          <t>reliability - reliability</t>
+          <t>statistics analysis - analysis</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>0.9997813105583191</v>
-      </c>
-      <c r="D85" s="2" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
+        <v>0.8018680214881897</v>
+      </c>
+      <c r="D85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Usman - Bajta</t>
+          <t>Bajta - Usman</t>
         </is>
       </c>
       <c r="B86" s="1" t="inlineStr">
         <is>
-          <t>reliability - maintainability</t>
+          <t>individual - single</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>0.8074816465377808</v>
+        <v>0.7275663614273071</v>
       </c>
       <c r="D86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Usman - Bajta</t>
+          <t>Bajta - Usman</t>
         </is>
       </c>
       <c r="B87" s="1" t="inlineStr">
         <is>
-          <t>close onshore - near offshore</t>
+          <t>security - security</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>0.8031231760978699</v>
-      </c>
-      <c r="D87" t="inlineStr"/>
+        <v>0.9992525577545166</v>
+      </c>
+      <c r="D87" s="2" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Usman - Bajta</t>
-        </is>
-      </c>
-      <c r="B88" s="1" t="inlineStr">
-        <is>
-          <t>close onshore - distant onshore</t>
+          <t>Bajta - Usman</t>
+        </is>
+      </c>
+      <c r="B88" s="3" t="inlineStr">
+        <is>
+          <t>reliability - maintainability</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>0.8277896642684937</v>
+        <v>0.8111288547515869</v>
       </c>
       <c r="D88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Usman - Bajta</t>
-        </is>
-      </c>
-      <c r="B89" s="1" t="inlineStr">
-        <is>
-          <t>health - healthcare</t>
+          <t>Bajta - Usman</t>
+        </is>
+      </c>
+      <c r="B89" s="3" t="inlineStr">
+        <is>
+          <t>reliability - availability</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>0.8521137237548828</v>
+        <v>0.7316736578941345</v>
       </c>
       <c r="D89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Usman - Bajta</t>
-        </is>
-      </c>
-      <c r="B90" s="1" t="inlineStr">
-        <is>
-          <t>analysis - analysis</t>
+          <t>Bajta - Usman</t>
+        </is>
+      </c>
+      <c r="B90" s="3" t="inlineStr">
+        <is>
+          <t>reliability - reliability</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>0.9992785453796387</v>
+        <v>0.9993396997451782</v>
       </c>
       <c r="D90" s="2" t="inlineStr">
         <is>
@@ -1990,618 +1938,6102 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Usman - Bajta</t>
-        </is>
-      </c>
-      <c r="B91" s="1" t="inlineStr">
-        <is>
-          <t>analysis - statistical analysis</t>
+          <t>Bajta - Usman</t>
+        </is>
+      </c>
+      <c r="B91" s="3" t="inlineStr">
+        <is>
+          <t>reliability - maintenance</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>0.8280989527702332</v>
+        <v>0.7194464206695557</v>
       </c>
       <c r="D91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Usman - Bajta</t>
-        </is>
-      </c>
-      <c r="B92" s="1" t="inlineStr">
-        <is>
-          <t>financial - finance</t>
+          <t>Bajta - Usman</t>
+        </is>
+      </c>
+      <c r="B92" s="3" t="inlineStr">
+        <is>
+          <t>other - size.other</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>0.8895421624183655</v>
+        <v>0.8033260107040405</v>
       </c>
       <c r="D92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Usman - Bajta</t>
-        </is>
-      </c>
-      <c r="B93" s="1" t="inlineStr">
-        <is>
-          <t>near offshore - near offshore</t>
+          <t>Bajta - Usman</t>
+        </is>
+      </c>
+      <c r="B93" s="3" t="inlineStr">
+        <is>
+          <t>other - project domain.other</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>0.999311089515686</v>
-      </c>
-      <c r="D93" s="2" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
+        <v>0.7317882776260376</v>
+      </c>
+      <c r="D93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Usman - Bajta</t>
-        </is>
-      </c>
-      <c r="B94" s="1" t="inlineStr">
-        <is>
-          <t>near offshore - distant onshore</t>
+          <t>Bajta - Usman</t>
+        </is>
+      </c>
+      <c r="B94" s="3" t="inlineStr">
+        <is>
+          <t>other - estimation entity.other</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>0.8924033641815186</v>
+        <v>0.706804096698761</v>
       </c>
       <c r="D94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Usman - Bajta</t>
-        </is>
-      </c>
-      <c r="B95" s="1" t="inlineStr">
-        <is>
-          <t>performance - performance</t>
+          <t>Bajta - Usman</t>
+        </is>
+      </c>
+      <c r="B95" s="3" t="inlineStr">
+        <is>
+          <t>other - unit.other</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>0.9974895119667053</v>
-      </c>
-      <c r="D95" s="2" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
+        <v>0.7928680181503296</v>
+      </c>
+      <c r="D95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Usman - Bajta</t>
+          <t>Bajta - Usman</t>
         </is>
       </c>
       <c r="B96" s="3" t="inlineStr">
         <is>
-          <t>value - value</t>
+          <t>considered - not considered</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>0.9995338916778564</v>
-      </c>
-      <c r="D96" s="2" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
+        <v>0.8873406648635864</v>
+      </c>
+      <c r="D96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Usman - Bajta</t>
-        </is>
-      </c>
-      <c r="B97" s="1" t="inlineStr">
-        <is>
-          <t>distant onshore - near offshore</t>
+          <t>Bajta - Usman</t>
+        </is>
+      </c>
+      <c r="B97" s="3" t="inlineStr">
+        <is>
+          <t>considered - not used</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>0.885113000869751</v>
+        <v>0.7085369825363159</v>
       </c>
       <c r="D97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Usman - Bajta</t>
-        </is>
-      </c>
-      <c r="B98" s="1" t="inlineStr">
-        <is>
-          <t>distant onshore - distant onshore</t>
+          <t>Bajta - Usman</t>
+        </is>
+      </c>
+      <c r="B98" s="3" t="inlineStr">
+        <is>
+          <t>considered - analysis</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>0.999662458896637</v>
-      </c>
-      <c r="D98" s="2" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
+        <v>0.7007584571838379</v>
+      </c>
+      <c r="D98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Usman - Bajta</t>
+          <t>Bajta - Usman</t>
         </is>
       </c>
       <c r="B99" s="3" t="inlineStr">
         <is>
-          <t>maintainability - reliability</t>
+          <t>considered - considered</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>0.8068212866783142</v>
-      </c>
-      <c r="D99" t="inlineStr"/>
+        <v>0.9997082948684692</v>
+      </c>
+      <c r="D99" s="2" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Usman - Bajta</t>
+          <t>Bajta - Usman</t>
         </is>
       </c>
       <c r="B100" s="3" t="inlineStr">
         <is>
-          <t>maintainability - maintainability</t>
+          <t>considered - not applicable</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>0.9997862577438354</v>
-      </c>
-      <c r="D100" s="2" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
+        <v>0.7377368211746216</v>
+      </c>
+      <c r="D100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Usman - Bajta</t>
+          <t>Bajta - Usman</t>
         </is>
       </c>
       <c r="B101" s="3" t="inlineStr">
         <is>
-          <t>maintainability - maintenance</t>
+          <t>se - not considered</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>0.8293272256851196</v>
+        <v>0.7181715965270996</v>
       </c>
       <c r="D101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Usman - Bajta</t>
+          <t>Bajta - Usman</t>
         </is>
       </c>
       <c r="B102" s="3" t="inlineStr">
         <is>
-          <t>security - security</t>
+          <t>se - not used</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>0.9994022250175476</v>
-      </c>
-      <c r="D102" s="2" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
+        <v>0.7219756245613098</v>
+      </c>
+      <c r="D102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Usman - Bajta</t>
-        </is>
-      </c>
-      <c r="B103" s="1" t="inlineStr">
-        <is>
-          <t>expert judgement - expert judgment</t>
+          <t>Bajta - Usman</t>
+        </is>
+      </c>
+      <c r="B103" s="3" t="inlineStr">
+        <is>
+          <t>se - considered</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>0.9841880798339844</v>
+        <v>0.7404901385307312</v>
       </c>
       <c r="D103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Usman - Bajta</t>
-        </is>
-      </c>
-      <c r="B104" s="1" t="inlineStr">
-        <is>
-          <t>not applicable - not considered</t>
+          <t>Bajta - Usman</t>
+        </is>
+      </c>
+      <c r="B104" s="3" t="inlineStr">
+        <is>
+          <t>se - not applicable</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>0.8074299097061157</v>
+        <v>0.7277209758758545</v>
       </c>
       <c r="D104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Usman - Bajta</t>
-        </is>
-      </c>
-      <c r="B105" s="1" t="inlineStr">
-        <is>
-          <t>no. of team members - number of team members</t>
+          <t>Bajta - Usman</t>
+        </is>
+      </c>
+      <c r="B105" s="3" t="inlineStr">
+        <is>
+          <t>value - estimate value(s)</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>0.9923943281173706</v>
+        <v>0.7318357825279236</v>
       </c>
       <c r="D105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Usman - Bajta</t>
-        </is>
-      </c>
-      <c r="B106" s="1" t="inlineStr">
-        <is>
-          <t>not considered - not considered</t>
+          <t>Bajta - Usman</t>
+        </is>
+      </c>
+      <c r="B106" s="3" t="inlineStr">
+        <is>
+          <t>value - actual effort.value</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>0.9997676014900208</v>
-      </c>
-      <c r="D106" s="2" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
+        <v>0.7109509110450745</v>
+      </c>
+      <c r="D106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Usman - Bajta</t>
+          <t>Bajta - Usman</t>
         </is>
       </c>
       <c r="B107" s="3" t="inlineStr">
         <is>
-          <t>maintenance - maintainability</t>
+          <t>system investigation - analysis</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>0.8263787627220154</v>
+        <v>0.7189403772354126</v>
       </c>
       <c r="D107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Usman - Bajta</t>
+          <t>Bajta - Usman</t>
         </is>
       </c>
       <c r="B108" s="3" t="inlineStr">
         <is>
-          <t>maintenance - maintenance</t>
+          <t>far offshore - distributed: far offshore</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>0.9999336004257202</v>
-      </c>
-      <c r="D108" s="2" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
+        <v>0.8532899618148804</v>
+      </c>
+      <c r="D108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Usman - Bajta</t>
-        </is>
-      </c>
-      <c r="B109" s="1" t="inlineStr">
-        <is>
-          <t>availability - availability</t>
+          <t>Bajta - Usman</t>
+        </is>
+      </c>
+      <c r="B109" s="3" t="inlineStr">
+        <is>
+          <t>far offshore - distributed: distant onshore</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>0.9996328949928284</v>
-      </c>
-      <c r="D109" s="2" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
+        <v>0.8183981776237488</v>
+      </c>
+      <c r="D109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Usman - Bajta</t>
+          <t>Bajta - Usman</t>
         </is>
       </c>
       <c r="B110" s="3" t="inlineStr">
         <is>
-          <t>testing - testing</t>
+          <t>far offshore - distributed: near offshore</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>0.9994994401931763</v>
-      </c>
-      <c r="D110" s="2" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
+        <v>0.8723074197769165</v>
+      </c>
+      <c r="D110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Usman - Bajta</t>
-        </is>
-      </c>
-      <c r="B111" s="1" t="inlineStr">
-        <is>
-          <t>design - design</t>
+          <t>Bajta - Usman</t>
+        </is>
+      </c>
+      <c r="B111" s="3" t="inlineStr">
+        <is>
+          <t>far offshore - distributed: close onshore</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>0.9990332722663879</v>
-      </c>
-      <c r="D111" s="2" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
+        <v>0.7922305464744568</v>
+      </c>
+      <c r="D111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Usman - Bajta</t>
+          <t>Bajta - Usman</t>
         </is>
       </c>
       <c r="B112" s="3" t="inlineStr">
         <is>
-          <t>implementation - implementation</t>
+          <t>expert judgment - expert judgement</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>0.999531626701355</v>
-      </c>
-      <c r="D112" s="2" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
+        <v>0.9825636744499207</v>
+      </c>
+      <c r="D112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Usman - Bajta</t>
-        </is>
-      </c>
-      <c r="B113" s="1" t="inlineStr">
-        <is>
-          <t>estimate value(s) - estimated value</t>
+          <t>Bajta - Usman</t>
+        </is>
+      </c>
+      <c r="B113" s="3" t="inlineStr">
+        <is>
+          <t>close onshore - distributed: distant onshore</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>0.9305617809295654</v>
+        <v>0.7459102869033813</v>
       </c>
       <c r="D113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Usman - Bajta</t>
-        </is>
-      </c>
-      <c r="B114" s="1" t="inlineStr">
-        <is>
-          <t>considered - not considered</t>
+          <t>Bajta - Usman</t>
+        </is>
+      </c>
+      <c r="B114" s="3" t="inlineStr">
+        <is>
+          <t>close onshore - distributed: near offshore</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>0.8922649025917053</v>
+        <v>0.7458748817443848</v>
       </c>
       <c r="D114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Usman - Bajta</t>
-        </is>
-      </c>
-      <c r="B115" s="1" t="inlineStr">
-        <is>
-          <t>bidding - bidding</t>
+          <t>Bajta - Usman</t>
+        </is>
+      </c>
+      <c r="B115" s="3" t="inlineStr">
+        <is>
+          <t>close onshore - distributed: close onshore</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>0.9996069669723511</v>
-      </c>
-      <c r="D115" s="2" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
+        <v>0.8792787790298462</v>
+      </c>
+      <c r="D115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Usman - Britto_2016</t>
+          <t>Bajta - Usman</t>
         </is>
       </c>
       <c r="B116" s="3" t="inlineStr">
         <is>
-          <t>distribution - distributed</t>
+          <t>testing - testing</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>0.8047651052474976</v>
-      </c>
-      <c r="D116" t="inlineStr"/>
+        <v>0.9974274039268494</v>
+      </c>
+      <c r="D116" s="2" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Usman - Britto_2016</t>
-        </is>
-      </c>
-      <c r="B117" s="3" t="inlineStr">
-        <is>
-          <t>estimate value(s) - estimator</t>
+          <t>Bajta - Usman</t>
+        </is>
+      </c>
+      <c r="B117" s="1" t="inlineStr">
+        <is>
+          <t>effort hours - ideal hours</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>0.8328943252563477</v>
+        <v>0.7515990734100342</v>
       </c>
       <c r="D117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Usman - Britto_2017</t>
-        </is>
-      </c>
-      <c r="B118" s="3" t="inlineStr">
-        <is>
-          <t>reliability - reliability level</t>
+          <t>Bajta - Usman</t>
+        </is>
+      </c>
+      <c r="B118" s="1" t="inlineStr">
+        <is>
+          <t>effort hours - effort estimate.type.other</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>0.8983274698257446</v>
+        <v>0.7721815705299377</v>
       </c>
       <c r="D118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Usman - Britto_2017</t>
-        </is>
-      </c>
-      <c r="B119" s="3" t="inlineStr">
-        <is>
-          <t>maintainability - maintainability level</t>
+          <t>Bajta - Usman</t>
+        </is>
+      </c>
+      <c r="B119" s="1" t="inlineStr">
+        <is>
+          <t>effort hours - hours/days</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>0.9301711916923523</v>
+        <v>0.7930198311805725</v>
       </c>
       <c r="D119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Usman - Britto_2017</t>
-        </is>
-      </c>
-      <c r="B120" s="3" t="inlineStr">
-        <is>
-          <t>security - security level</t>
+          <t>Bajta - Usman</t>
+        </is>
+      </c>
+      <c r="B120" s="1" t="inlineStr">
+        <is>
+          <t>effort hours - actual effort.value</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>0.8808649182319641</v>
+        <v>0.816739022731781</v>
       </c>
       <c r="D120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Usman - Britto_2017</t>
-        </is>
-      </c>
-      <c r="B121" s="3" t="inlineStr">
-        <is>
-          <t>no. of team members - team size</t>
+          <t>Bajta - Usman</t>
+        </is>
+      </c>
+      <c r="B121" s="1" t="inlineStr">
+        <is>
+          <t>distant onshore - distributed: far offshore</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>0.8909369707107544</v>
+        <v>0.8161802291870117</v>
       </c>
       <c r="D121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Usman - Britto_2017</t>
-        </is>
-      </c>
-      <c r="B122" s="3" t="inlineStr">
-        <is>
-          <t>availability - availability level</t>
+          <t>Bajta - Usman</t>
+        </is>
+      </c>
+      <c r="B122" s="1" t="inlineStr">
+        <is>
+          <t>distant onshore - distributed: distant onshore</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>0.9160313010215759</v>
+        <v>0.8980157375335693</v>
       </c>
       <c r="D122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Usman - Dasthi</t>
-        </is>
-      </c>
-      <c r="B123" s="3" t="inlineStr">
-        <is>
-          <t>analogy - analogy base</t>
+          <t>Bajta - Usman</t>
+        </is>
+      </c>
+      <c r="B123" s="1" t="inlineStr">
+        <is>
+          <t>distant onshore - distributed: near offshore</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>0.8997219800949097</v>
+        <v>0.8568334579467773</v>
       </c>
       <c r="D123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Usman - Dasthi</t>
-        </is>
-      </c>
-      <c r="B124" s="3" t="inlineStr">
-        <is>
-          <t>expert judgement - expert judgment</t>
+          <t>Bajta - Usman</t>
+        </is>
+      </c>
+      <c r="B124" s="1" t="inlineStr">
+        <is>
+          <t>distant onshore - distributed: close onshore</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>0.9845337867736816</v>
+        <v>0.8333410024642944</v>
       </c>
       <c r="D124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
+          <t>Bajta - Usman</t>
+        </is>
+      </c>
+      <c r="B125" s="1" t="inlineStr">
+        <is>
+          <t>maintenance - maintainability</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>0.8285228610038757</v>
+      </c>
+      <c r="D125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Bajta - Usman</t>
+        </is>
+      </c>
+      <c r="B126" s="1" t="inlineStr">
+        <is>
+          <t>maintenance - reliability</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>0.7192369699478149</v>
+      </c>
+      <c r="D126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Bajta - Usman</t>
+        </is>
+      </c>
+      <c r="B127" s="1" t="inlineStr">
+        <is>
+          <t>maintenance - maintenance</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>0.9997090697288513</v>
+      </c>
+      <c r="D127" s="2" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Bajta - Usman</t>
+        </is>
+      </c>
+      <c r="B128" s="3" t="inlineStr">
+        <is>
+          <t>no of team members - no. of team members</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>0.9909900426864624</v>
+      </c>
+      <c r="D128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Britto_2017 - Bajta</t>
+        </is>
+      </c>
+      <c r="B129" s="3" t="inlineStr">
+        <is>
+          <t>technical factors - hardware</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>0.707269549369812</v>
+      </c>
+      <c r="D129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Britto_2017 - Bajta</t>
+        </is>
+      </c>
+      <c r="B130" s="3" t="inlineStr">
+        <is>
+          <t>portability level - maintainability</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>0.7001724243164062</v>
+      </c>
+      <c r="D130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Britto_2017 - Bajta</t>
+        </is>
+      </c>
+      <c r="B131" s="3" t="inlineStr">
+        <is>
+          <t>risk level - risk</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>0.9063774943351746</v>
+      </c>
+      <c r="D131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Britto_2017 - Bajta</t>
+        </is>
+      </c>
+      <c r="B132" s="3" t="inlineStr">
+        <is>
+          <t>team capability - no of team members</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
+        <v>0.7669906616210938</v>
+      </c>
+      <c r="D132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Britto_2017 - Bajta</t>
+        </is>
+      </c>
+      <c r="B133" s="3" t="inlineStr">
+        <is>
+          <t>time efficiency level - performance</t>
+        </is>
+      </c>
+      <c r="C133" t="n">
+        <v>0.7183018922805786</v>
+      </c>
+      <c r="D133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Britto_2017 - Bajta</t>
+        </is>
+      </c>
+      <c r="B134" s="3" t="inlineStr">
+        <is>
+          <t>time efficiency level - effort hours</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
+        <v>0.7378262281417847</v>
+      </c>
+      <c r="D134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Britto_2017 - Bajta</t>
+        </is>
+      </c>
+      <c r="B135" s="3" t="inlineStr">
+        <is>
+          <t>work team level - no of team members</t>
+        </is>
+      </c>
+      <c r="C135" t="n">
+        <v>0.7891374230384827</v>
+      </c>
+      <c r="D135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Britto_2017 - Bajta</t>
+        </is>
+      </c>
+      <c r="B136" s="3" t="inlineStr">
+        <is>
+          <t>architecture - design</t>
+        </is>
+      </c>
+      <c r="C136" t="n">
+        <v>0.7788975834846497</v>
+      </c>
+      <c r="D136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Britto_2017 - Bajta</t>
+        </is>
+      </c>
+      <c r="B137" s="3" t="inlineStr">
+        <is>
+          <t>process efficiency level - performance</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
+        <v>0.7081760168075562</v>
+      </c>
+      <c r="D137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Britto_2017 - Bajta</t>
+        </is>
+      </c>
+      <c r="B138" s="3" t="inlineStr">
+        <is>
+          <t>availability level - availability</t>
+        </is>
+      </c>
+      <c r="C138" t="n">
+        <v>0.9153699278831482</v>
+      </c>
+      <c r="D138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Britto_2017 - Bajta</t>
+        </is>
+      </c>
+      <c r="B139" s="3" t="inlineStr">
+        <is>
+          <t>testability level - testing</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
+        <v>0.7944705486297607</v>
+      </c>
+      <c r="D139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Britto_2017 - Bajta</t>
+        </is>
+      </c>
+      <c r="B140" s="3" t="inlineStr">
+        <is>
+          <t>personality - individual</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>0.7180882692337036</v>
+      </c>
+      <c r="D140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Britto_2017 - Bajta</t>
+        </is>
+      </c>
+      <c r="B141" s="3" t="inlineStr">
+        <is>
+          <t>robustness level - reliability</t>
+        </is>
+      </c>
+      <c r="C141" t="n">
+        <v>0.7291364073753357</v>
+      </c>
+      <c r="D141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Britto_2017 - Bajta</t>
+        </is>
+      </c>
+      <c r="B142" s="3" t="inlineStr">
+        <is>
+          <t>installability level - maintainability</t>
+        </is>
+      </c>
+      <c r="C142" t="n">
+        <v>0.7011855244636536</v>
+      </c>
+      <c r="D142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Britto_2017 - Bajta</t>
+        </is>
+      </c>
+      <c r="B143" s="3" t="inlineStr">
+        <is>
+          <t>team size - size report</t>
+        </is>
+      </c>
+      <c r="C143" t="n">
+        <v>0.7020217180252075</v>
+      </c>
+      <c r="D143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Britto_2017 - Bajta</t>
+        </is>
+      </c>
+      <c r="B144" s="3" t="inlineStr">
+        <is>
+          <t>team size - no of team members</t>
+        </is>
+      </c>
+      <c r="C144" t="n">
+        <v>0.9020061492919922</v>
+      </c>
+      <c r="D144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Britto_2017 - Bajta</t>
+        </is>
+      </c>
+      <c r="B145" s="3" t="inlineStr">
+        <is>
+          <t>security level - security</t>
+        </is>
+      </c>
+      <c r="C145" t="n">
+        <v>0.8816399574279785</v>
+      </c>
+      <c r="D145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Britto_2017 - Bajta</t>
+        </is>
+      </c>
+      <c r="B146" s="3" t="inlineStr">
+        <is>
+          <t>quality level - performance</t>
+        </is>
+      </c>
+      <c r="C146" t="n">
+        <v>0.7170475125312805</v>
+      </c>
+      <c r="D146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Britto_2017 - Bajta</t>
+        </is>
+      </c>
+      <c r="B147" s="3" t="inlineStr">
+        <is>
+          <t>maintainability level - maintainability</t>
+        </is>
+      </c>
+      <c r="C147" t="n">
+        <v>0.9333113431930542</v>
+      </c>
+      <c r="D147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Britto_2017 - Bajta</t>
+        </is>
+      </c>
+      <c r="B148" s="3" t="inlineStr">
+        <is>
+          <t>maintainability level - reliability</t>
+        </is>
+      </c>
+      <c r="C148" t="n">
+        <v>0.7468510270118713</v>
+      </c>
+      <c r="D148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Britto_2017 - Bajta</t>
+        </is>
+      </c>
+      <c r="B149" s="3" t="inlineStr">
+        <is>
+          <t>maintainability level - maintenance</t>
+        </is>
+      </c>
+      <c r="C149" t="n">
+        <v>0.7700716257095337</v>
+      </c>
+      <c r="D149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Britto_2017 - Bajta</t>
+        </is>
+      </c>
+      <c r="B150" s="3" t="inlineStr">
+        <is>
+          <t>platform support level - hardware</t>
+        </is>
+      </c>
+      <c r="C150" t="n">
+        <v>0.7130677700042725</v>
+      </c>
+      <c r="D150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Britto_2017 - Bajta</t>
+        </is>
+      </c>
+      <c r="B151" s="3" t="inlineStr">
+        <is>
+          <t>reliability level - maintainability</t>
+        </is>
+      </c>
+      <c r="C151" t="n">
+        <v>0.7455886602401733</v>
+      </c>
+      <c r="D151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Britto_2017 - Bajta</t>
+        </is>
+      </c>
+      <c r="B152" s="3" t="inlineStr">
+        <is>
+          <t>reliability level - availability</t>
+        </is>
+      </c>
+      <c r="C152" t="n">
+        <v>0.7008758783340454</v>
+      </c>
+      <c r="D152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Britto_2017 - Bajta</t>
+        </is>
+      </c>
+      <c r="B153" s="3" t="inlineStr">
+        <is>
+          <t>reliability level - reliability</t>
+        </is>
+      </c>
+      <c r="C153" t="n">
+        <v>0.9016155004501343</v>
+      </c>
+      <c r="D153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Britto_2017 - Bajta</t>
+        </is>
+      </c>
+      <c r="B154" s="3" t="inlineStr">
+        <is>
+          <t>reusability level - maintainability</t>
+        </is>
+      </c>
+      <c r="C154" t="n">
+        <v>0.7120569944381714</v>
+      </c>
+      <c r="D154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Britto_2017 - Dasthi</t>
+        </is>
+      </c>
+      <c r="B155" s="3" t="inlineStr">
+        <is>
+          <t>software development experience - software life cycle management</t>
+        </is>
+      </c>
+      <c r="C155" t="n">
+        <v>0.7001001238822937</v>
+      </c>
+      <c r="D155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Britto_2017 - Mendes</t>
+        </is>
+      </c>
+      <c r="B156" s="3" t="inlineStr">
+        <is>
+          <t>interface complexity - complexity</t>
+        </is>
+      </c>
+      <c r="C156" t="n">
+        <v>0.788794994354248</v>
+      </c>
+      <c r="D156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Britto_2017 - Mendes</t>
+        </is>
+      </c>
+      <c r="B157" s="3" t="inlineStr">
+        <is>
+          <t>control flow complexity - complexity</t>
+        </is>
+      </c>
+      <c r="C157" t="n">
+        <v>0.7521748542785645</v>
+      </c>
+      <c r="D157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Britto_2017 - Mendes</t>
+        </is>
+      </c>
+      <c r="B158" s="3" t="inlineStr">
+        <is>
+          <t>media count - media</t>
+        </is>
+      </c>
+      <c r="C158" t="n">
+        <v>0.8106052875518799</v>
+      </c>
+      <c r="D158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Britto_2017 - Mendes</t>
+        </is>
+      </c>
+      <c r="B159" s="3" t="inlineStr">
+        <is>
+          <t>web page allocation - web application</t>
+        </is>
+      </c>
+      <c r="C159" t="n">
+        <v>0.7069319486618042</v>
+      </c>
+      <c r="D159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Britto_2017 - Mendes</t>
+        </is>
+      </c>
+      <c r="B160" s="3" t="inlineStr">
+        <is>
+          <t>project.type - model dependency.specific</t>
+        </is>
+      </c>
+      <c r="C160" t="n">
+        <v>0.7028049826622009</v>
+      </c>
+      <c r="D160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Britto_2017 - Mendes</t>
+        </is>
+      </c>
+      <c r="B161" s="3" t="inlineStr">
+        <is>
+          <t>adaptation complexity - complexity</t>
+        </is>
+      </c>
+      <c r="C161" t="n">
+        <v>0.8014897108078003</v>
+      </c>
+      <c r="D161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Britto_2017 - Mendes</t>
+        </is>
+      </c>
+      <c r="B162" s="3" t="inlineStr">
+        <is>
+          <t>program count - program/script</t>
+        </is>
+      </c>
+      <c r="C162" t="n">
+        <v>0.7155075669288635</v>
+      </c>
+      <c r="D162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Britto_2017 - Mendes</t>
+        </is>
+      </c>
+      <c r="B163" s="3" t="inlineStr">
+        <is>
+          <t>class complexity - complexity</t>
+        </is>
+      </c>
+      <c r="C163" t="n">
+        <v>0.859127938747406</v>
+      </c>
+      <c r="D163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Britto_2017 - Mendes</t>
+        </is>
+      </c>
+      <c r="B164" s="3" t="inlineStr">
+        <is>
+          <t>class complexity - class.length</t>
+        </is>
+      </c>
+      <c r="C164" t="n">
+        <v>0.7628931999206543</v>
+      </c>
+      <c r="D164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Britto_2017 - Mendes</t>
+        </is>
+      </c>
+      <c r="B165" s="3" t="inlineStr">
+        <is>
+          <t>cyclomatic complexity - complexity</t>
+        </is>
+      </c>
+      <c r="C165" t="n">
+        <v>0.8227348923683167</v>
+      </c>
+      <c r="D165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Britto_2017 - Mendes</t>
+        </is>
+      </c>
+      <c r="B166" s="3" t="inlineStr">
+        <is>
+          <t>web objects - web software application</t>
+        </is>
+      </c>
+      <c r="C166" t="n">
+        <v>0.7544272541999817</v>
+      </c>
+      <c r="D166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Britto_2017 - Mendes</t>
+        </is>
+      </c>
+      <c r="B167" s="3" t="inlineStr">
+        <is>
+          <t>web objects - web hypermedia application</t>
+        </is>
+      </c>
+      <c r="C167" t="n">
+        <v>0.7174214124679565</v>
+      </c>
+      <c r="D167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Britto_2017 - Mendes</t>
+        </is>
+      </c>
+      <c r="B168" s="3" t="inlineStr">
+        <is>
+          <t>web objects - web application</t>
+        </is>
+      </c>
+      <c r="C168" t="n">
+        <v>0.7908452749252319</v>
+      </c>
+      <c r="D168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Britto_2017 - Mendes</t>
+        </is>
+      </c>
+      <c r="B169" s="3" t="inlineStr">
+        <is>
+          <t>model collection complexity - complexity</t>
+        </is>
+      </c>
+      <c r="C169" t="n">
+        <v>0.7142325043678284</v>
+      </c>
+      <c r="D169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Britto_2017 - Mendes</t>
+        </is>
+      </c>
+      <c r="B170" s="3" t="inlineStr">
+        <is>
+          <t>difficulty level - complexity</t>
+        </is>
+      </c>
+      <c r="C170" t="n">
+        <v>0.7375029325485229</v>
+      </c>
+      <c r="D170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Britto_2017 - Mendes</t>
+        </is>
+      </c>
+      <c r="B171" s="3" t="inlineStr">
+        <is>
+          <t>data flow complexity - complexity</t>
+        </is>
+      </c>
+      <c r="C171" t="n">
+        <v>0.7816030979156494</v>
+      </c>
+      <c r="D171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Britto_2017 - Mendes</t>
+        </is>
+      </c>
+      <c r="B172" s="3" t="inlineStr">
+        <is>
+          <t>motivation level - motivation</t>
+        </is>
+      </c>
+      <c r="C172" t="n">
+        <v>0.9217793941497803</v>
+      </c>
+      <c r="D172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Britto_2017 - Mendes</t>
+        </is>
+      </c>
+      <c r="B173" s="3" t="inlineStr">
+        <is>
+          <t>data usage complexity - complexity</t>
+        </is>
+      </c>
+      <c r="C173" t="n">
+        <v>0.773707389831543</v>
+      </c>
+      <c r="D173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Britto_2017 - Mendes</t>
+        </is>
+      </c>
+      <c r="B174" s="3" t="inlineStr">
+        <is>
+          <t>new media count - media</t>
+        </is>
+      </c>
+      <c r="C174" t="n">
+        <v>0.7458544969558716</v>
+      </c>
+      <c r="D174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Britto_2017 - Mendes</t>
+        </is>
+      </c>
+      <c r="B175" s="3" t="inlineStr">
+        <is>
+          <t>media allocation - media</t>
+        </is>
+      </c>
+      <c r="C175" t="n">
+        <v>0.8105663657188416</v>
+      </c>
+      <c r="D175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Britto_2017 - Mendes</t>
+        </is>
+      </c>
+      <c r="B176" s="3" t="inlineStr">
+        <is>
+          <t>cohesion complexity - complexity</t>
+        </is>
+      </c>
+      <c r="C176" t="n">
+        <v>0.7755807638168335</v>
+      </c>
+      <c r="D176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Britto_2017 - Mendes</t>
+        </is>
+      </c>
+      <c r="B177" s="3" t="inlineStr">
+        <is>
+          <t>page complexity - complexity</t>
+        </is>
+      </c>
+      <c r="C177" t="n">
+        <v>0.7730066776275635</v>
+      </c>
+      <c r="D177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Britto_2017 - Mendes</t>
+        </is>
+      </c>
+      <c r="B178" s="3" t="inlineStr">
+        <is>
+          <t>output complexity - complexity</t>
+        </is>
+      </c>
+      <c r="C178" t="n">
+        <v>0.8514497876167297</v>
+      </c>
+      <c r="D178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Britto_2017 - Mendes</t>
+        </is>
+      </c>
+      <c r="B179" s="3" t="inlineStr">
+        <is>
+          <t>new complexity - complexity</t>
+        </is>
+      </c>
+      <c r="C179" t="n">
+        <v>0.9406248331069946</v>
+      </c>
+      <c r="D179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Britto_2017 - Mendes</t>
+        </is>
+      </c>
+      <c r="B180" s="3" t="inlineStr">
+        <is>
+          <t>input complexity - complexity</t>
+        </is>
+      </c>
+      <c r="C180" t="n">
+        <v>0.8536317944526672</v>
+      </c>
+      <c r="D180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Britto_2017 - Mendes</t>
+        </is>
+      </c>
+      <c r="B181" s="3" t="inlineStr">
+        <is>
+          <t>component complexity - complexity</t>
+        </is>
+      </c>
+      <c r="C181" t="n">
+        <v>0.8429385423660278</v>
+      </c>
+      <c r="D181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Britto_2017 - Mendes</t>
+        </is>
+      </c>
+      <c r="B182" s="3" t="inlineStr">
+        <is>
+          <t>model association complexity - complexity</t>
+        </is>
+      </c>
+      <c r="C182" t="n">
+        <v>0.7396803498268127</v>
+      </c>
+      <c r="D182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Britto_2017 - Mendes</t>
+        </is>
+      </c>
+      <c r="B183" s="3" t="inlineStr">
+        <is>
+          <t>total complexity - complexity</t>
+        </is>
+      </c>
+      <c r="C183" t="n">
+        <v>0.9379963874816895</v>
+      </c>
+      <c r="D183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Britto_2017 - Mendes</t>
+        </is>
+      </c>
+      <c r="B184" s="3" t="inlineStr">
+        <is>
+          <t>media duration - media</t>
+        </is>
+      </c>
+      <c r="C184" t="n">
+        <v>0.7906241416931152</v>
+      </c>
+      <c r="D184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Britto_2017 - Mendes</t>
+        </is>
+      </c>
+      <c r="B185" s="3" t="inlineStr">
+        <is>
+          <t>layout complexity - complexity</t>
+        </is>
+      </c>
+      <c r="C185" t="n">
+        <v>0.7517379522323608</v>
+      </c>
+      <c r="D185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Britto_2017 - Usman</t>
+        </is>
+      </c>
+      <c r="B186" s="3" t="inlineStr">
+        <is>
+          <t>entity count - estimation entity.other</t>
+        </is>
+      </c>
+      <c r="C186" t="n">
+        <v>0.730510950088501</v>
+      </c>
+      <c r="D186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Britto_2017 - Usman</t>
+        </is>
+      </c>
+      <c r="B187" s="3" t="inlineStr">
+        <is>
+          <t>entity count - number of entities estimated.value</t>
+        </is>
+      </c>
+      <c r="C187" t="n">
+        <v>0.8497437238693237</v>
+      </c>
+      <c r="D187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Britto_2017 - Usman</t>
+        </is>
+      </c>
+      <c r="B188" s="3" t="inlineStr">
+        <is>
+          <t>portability level - maintainability</t>
+        </is>
+      </c>
+      <c r="C188" t="n">
+        <v>0.7062345147132874</v>
+      </c>
+      <c r="D188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Britto_2017 - Usman</t>
+        </is>
+      </c>
+      <c r="B189" s="3" t="inlineStr">
+        <is>
+          <t>project.infrastructure - project domain.other</t>
+        </is>
+      </c>
+      <c r="C189" t="n">
+        <v>0.8091544508934021</v>
+      </c>
+      <c r="D189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Britto_2017 - Usman</t>
+        </is>
+      </c>
+      <c r="B190" s="3" t="inlineStr">
+        <is>
+          <t>team capability - no. of team members</t>
+        </is>
+      </c>
+      <c r="C190" t="n">
+        <v>0.7631815671920776</v>
+      </c>
+      <c r="D190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Britto_2017 - Usman</t>
+        </is>
+      </c>
+      <c r="B191" s="3" t="inlineStr">
+        <is>
+          <t>project.type - effort estimate.type.other</t>
+        </is>
+      </c>
+      <c r="C191" t="n">
+        <v>0.7216285467147827</v>
+      </c>
+      <c r="D191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Britto_2017 - Usman</t>
+        </is>
+      </c>
+      <c r="B192" s="3" t="inlineStr">
+        <is>
+          <t>project.type - project domain.other</t>
+        </is>
+      </c>
+      <c r="C192" t="n">
+        <v>0.7781206369400024</v>
+      </c>
+      <c r="D192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Britto_2017 - Usman</t>
+        </is>
+      </c>
+      <c r="B193" s="3" t="inlineStr">
+        <is>
+          <t>time efficiency level - performance</t>
+        </is>
+      </c>
+      <c r="C193" t="n">
+        <v>0.7261173129081726</v>
+      </c>
+      <c r="D193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Britto_2017 - Usman</t>
+        </is>
+      </c>
+      <c r="B194" s="3" t="inlineStr">
+        <is>
+          <t>work team level - no. of team members</t>
+        </is>
+      </c>
+      <c r="C194" t="n">
+        <v>0.7996017336845398</v>
+      </c>
+      <c r="D194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Britto_2017 - Usman</t>
+        </is>
+      </c>
+      <c r="B195" s="3" t="inlineStr">
+        <is>
+          <t>time restriction - hours/days</t>
+        </is>
+      </c>
+      <c r="C195" t="n">
+        <v>0.7245569229125977</v>
+      </c>
+      <c r="D195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Britto_2017 - Usman</t>
+        </is>
+      </c>
+      <c r="B196" s="3" t="inlineStr">
+        <is>
+          <t>use case count - use case</t>
+        </is>
+      </c>
+      <c r="C196" t="n">
+        <v>0.7909183502197266</v>
+      </c>
+      <c r="D196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Britto_2017 - Usman</t>
+        </is>
+      </c>
+      <c r="B197" s="3" t="inlineStr">
+        <is>
+          <t>use case count - use case points method</t>
+        </is>
+      </c>
+      <c r="C197" t="n">
+        <v>0.7364347577095032</v>
+      </c>
+      <c r="D197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Britto_2017 - Usman</t>
+        </is>
+      </c>
+      <c r="B198" s="3" t="inlineStr">
+        <is>
+          <t>use case count - not used</t>
+        </is>
+      </c>
+      <c r="C198" t="n">
+        <v>0.714119017124176</v>
+      </c>
+      <c r="D198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Britto_2017 - Usman</t>
+        </is>
+      </c>
+      <c r="B199" s="3" t="inlineStr">
+        <is>
+          <t>use case count - user case points</t>
+        </is>
+      </c>
+      <c r="C199" t="n">
+        <v>0.7830620408058167</v>
+      </c>
+      <c r="D199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Britto_2017 - Usman</t>
+        </is>
+      </c>
+      <c r="B200" s="3" t="inlineStr">
+        <is>
+          <t>requirements novelty level - non functional requirements.other</t>
+        </is>
+      </c>
+      <c r="C200" t="n">
+        <v>0.7913196086883545</v>
+      </c>
+      <c r="D200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Britto_2017 - Usman</t>
+        </is>
+      </c>
+      <c r="B201" s="3" t="inlineStr">
+        <is>
+          <t>data web points - point</t>
+        </is>
+      </c>
+      <c r="C201" t="n">
+        <v>0.7063830494880676</v>
+      </c>
+      <c r="D201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Britto_2017 - Usman</t>
+        </is>
+      </c>
+      <c r="B202" s="3" t="inlineStr">
+        <is>
+          <t>international function point users group - function points</t>
+        </is>
+      </c>
+      <c r="C202" t="n">
+        <v>0.7130600214004517</v>
+      </c>
+      <c r="D202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Britto_2017 - Usman</t>
+        </is>
+      </c>
+      <c r="B203" s="3" t="inlineStr">
+        <is>
+          <t>architecture - design</t>
+        </is>
+      </c>
+      <c r="C203" t="n">
+        <v>0.7758020162582397</v>
+      </c>
+      <c r="D203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Britto_2017 - Usman</t>
+        </is>
+      </c>
+      <c r="B204" s="3" t="inlineStr">
+        <is>
+          <t>requirements clarity level - non functional requirements.other</t>
+        </is>
+      </c>
+      <c r="C204" t="n">
+        <v>0.7976760268211365</v>
+      </c>
+      <c r="D204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Britto_2017 - Usman</t>
+        </is>
+      </c>
+      <c r="B205" s="3" t="inlineStr">
+        <is>
+          <t>process efficiency level - performance</t>
+        </is>
+      </c>
+      <c r="C205" t="n">
+        <v>0.7163597345352173</v>
+      </c>
+      <c r="D205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Britto_2017 - Usman</t>
+        </is>
+      </c>
+      <c r="B206" s="3" t="inlineStr">
+        <is>
+          <t>availability level - availability</t>
+        </is>
+      </c>
+      <c r="C206" t="n">
+        <v>0.9192025065422058</v>
+      </c>
+      <c r="D206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Britto_2017 - Usman</t>
+        </is>
+      </c>
+      <c r="B207" s="3" t="inlineStr">
+        <is>
+          <t>testability level - testing</t>
+        </is>
+      </c>
+      <c r="C207" t="n">
+        <v>0.7862407565116882</v>
+      </c>
+      <c r="D207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Britto_2017 - Usman</t>
+        </is>
+      </c>
+      <c r="B208" s="3" t="inlineStr">
+        <is>
+          <t>processing requirements - non functional requirements.other</t>
+        </is>
+      </c>
+      <c r="C208" t="n">
+        <v>0.7091772556304932</v>
+      </c>
+      <c r="D208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Britto_2017 - Usman</t>
+        </is>
+      </c>
+      <c r="B209" s="3" t="inlineStr">
+        <is>
+          <t>object-oriented function points - function points</t>
+        </is>
+      </c>
+      <c r="C209" t="n">
+        <v>0.8043677806854248</v>
+      </c>
+      <c r="D209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Britto_2017 - Usman</t>
+        </is>
+      </c>
+      <c r="B210" s="3" t="inlineStr">
+        <is>
+          <t>object-oriented function points - point</t>
+        </is>
+      </c>
+      <c r="C210" t="n">
+        <v>0.7208200097084045</v>
+      </c>
+      <c r="D210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Britto_2017 - Usman</t>
+        </is>
+      </c>
+      <c r="B211" s="3" t="inlineStr">
+        <is>
+          <t>requirements volatility level - non functional requirements.other</t>
+        </is>
+      </c>
+      <c r="C211" t="n">
+        <v>0.7031106948852539</v>
+      </c>
+      <c r="D211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Britto_2017 - Usman</t>
+        </is>
+      </c>
+      <c r="B212" s="3" t="inlineStr">
+        <is>
+          <t>robustness level - reliability</t>
+        </is>
+      </c>
+      <c r="C212" t="n">
+        <v>0.7322574853897095</v>
+      </c>
+      <c r="D212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Britto_2017 - Usman</t>
+        </is>
+      </c>
+      <c r="B213" s="3" t="inlineStr">
+        <is>
+          <t>installability level - maintainability</t>
+        </is>
+      </c>
+      <c r="C213" t="n">
+        <v>0.7047934532165527</v>
+      </c>
+      <c r="D213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Britto_2017 - Usman</t>
+        </is>
+      </c>
+      <c r="B214" s="3" t="inlineStr">
+        <is>
+          <t>installability level - implementation</t>
+        </is>
+      </c>
+      <c r="C214" t="n">
+        <v>0.7037801742553711</v>
+      </c>
+      <c r="D214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Britto_2017 - Usman</t>
+        </is>
+      </c>
+      <c r="B215" s="3" t="inlineStr">
+        <is>
+          <t>team size - no. of team members</t>
+        </is>
+      </c>
+      <c r="C215" t="n">
+        <v>0.8902832269668579</v>
+      </c>
+      <c r="D215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Britto_2017 - Usman</t>
+        </is>
+      </c>
+      <c r="B216" s="3" t="inlineStr">
+        <is>
+          <t>security level - security</t>
+        </is>
+      </c>
+      <c r="C216" t="n">
+        <v>0.8791960477828979</v>
+      </c>
+      <c r="D216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Britto_2017 - Usman</t>
+        </is>
+      </c>
+      <c r="B217" s="3" t="inlineStr">
+        <is>
+          <t>quality level - accuracy level.value</t>
+        </is>
+      </c>
+      <c r="C217" t="n">
+        <v>0.7021670341491699</v>
+      </c>
+      <c r="D217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Britto_2017 - Usman</t>
+        </is>
+      </c>
+      <c r="B218" s="3" t="inlineStr">
+        <is>
+          <t>quality level - performance</t>
+        </is>
+      </c>
+      <c r="C218" t="n">
+        <v>0.7244912981987</v>
+      </c>
+      <c r="D218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Britto_2017 - Usman</t>
+        </is>
+      </c>
+      <c r="B219" s="3" t="inlineStr">
+        <is>
+          <t>object-oriented heuristic function points - function points</t>
+        </is>
+      </c>
+      <c r="C219" t="n">
+        <v>0.7119852900505066</v>
+      </c>
+      <c r="D219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Britto_2017 - Usman</t>
+        </is>
+      </c>
+      <c r="B220" s="3" t="inlineStr">
+        <is>
+          <t>maintainability level - maintainability</t>
+        </is>
+      </c>
+      <c r="C220" t="n">
+        <v>0.9345709681510925</v>
+      </c>
+      <c r="D220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Britto_2017 - Usman</t>
+        </is>
+      </c>
+      <c r="B221" s="3" t="inlineStr">
+        <is>
+          <t>maintainability level - reliability</t>
+        </is>
+      </c>
+      <c r="C221" t="n">
+        <v>0.7490958571434021</v>
+      </c>
+      <c r="D221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Britto_2017 - Usman</t>
+        </is>
+      </c>
+      <c r="B222" s="3" t="inlineStr">
+        <is>
+          <t>maintainability level - maintenance</t>
+        </is>
+      </c>
+      <c r="C222" t="n">
+        <v>0.7694317102432251</v>
+      </c>
+      <c r="D222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Britto_2017 - Usman</t>
+        </is>
+      </c>
+      <c r="B223" s="3" t="inlineStr">
+        <is>
+          <t>reliability level - maintainability</t>
+        </is>
+      </c>
+      <c r="C223" t="n">
+        <v>0.7501024007797241</v>
+      </c>
+      <c r="D223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Britto_2017 - Usman</t>
+        </is>
+      </c>
+      <c r="B224" s="3" t="inlineStr">
+        <is>
+          <t>reliability level - availability</t>
+        </is>
+      </c>
+      <c r="C224" t="n">
+        <v>0.708318293094635</v>
+      </c>
+      <c r="D224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Britto_2017 - Usman</t>
+        </is>
+      </c>
+      <c r="B225" s="3" t="inlineStr">
+        <is>
+          <t>reliability level - reliability</t>
+        </is>
+      </c>
+      <c r="C225" t="n">
+        <v>0.9038812518119812</v>
+      </c>
+      <c r="D225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Britto_2017 - Usman</t>
+        </is>
+      </c>
+      <c r="B226" s="3" t="inlineStr">
+        <is>
+          <t>reusability level - maintainability</t>
+        </is>
+      </c>
+      <c r="C226" t="n">
+        <v>0.7171540260314941</v>
+      </c>
+      <c r="D226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Britto_2017 - Usman</t>
+        </is>
+      </c>
+      <c r="B227" s="3" t="inlineStr">
+        <is>
+          <t>reusability level - not used</t>
+        </is>
+      </c>
+      <c r="C227" t="n">
+        <v>0.7030714750289917</v>
+      </c>
+      <c r="D227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Britto_2016 - Bajta</t>
+        </is>
+      </c>
+      <c r="B228" s="3" t="inlineStr">
+        <is>
+          <t>estimator &amp; provider - estimate value</t>
+        </is>
+      </c>
+      <c r="C228" t="n">
+        <v>0.7849944233894348</v>
+      </c>
+      <c r="D228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Britto_2016 - Bajta</t>
+        </is>
+      </c>
+      <c r="B229" s="3" t="inlineStr">
+        <is>
+          <t>relationship.geographic distance - temporal distance</t>
+        </is>
+      </c>
+      <c r="C229" t="n">
+        <v>0.7271990776062012</v>
+      </c>
+      <c r="D229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Britto_2016 - Bajta</t>
+        </is>
+      </c>
+      <c r="B230" s="3" t="inlineStr">
+        <is>
+          <t>relationship.geographic distance - geographical distance</t>
+        </is>
+      </c>
+      <c r="C230" t="n">
+        <v>0.8691718578338623</v>
+      </c>
+      <c r="D230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Britto_2016 - Bajta</t>
+        </is>
+      </c>
+      <c r="B231" s="3" t="inlineStr">
+        <is>
+          <t>site.geographic distance - geographical distance</t>
+        </is>
+      </c>
+      <c r="C231" t="n">
+        <v>0.8135297298431396</v>
+      </c>
+      <c r="D231" t="inlineStr"/>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Britto_2016 - Bajta</t>
+        </is>
+      </c>
+      <c r="B232" s="3" t="inlineStr">
+        <is>
+          <t>estimator - estimate value</t>
+        </is>
+      </c>
+      <c r="C232" t="n">
+        <v>0.8444365262985229</v>
+      </c>
+      <c r="D232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Britto_2016 - Bajta</t>
+        </is>
+      </c>
+      <c r="B233" s="3" t="inlineStr">
+        <is>
+          <t>site.temporal distance - temporal distance</t>
+        </is>
+      </c>
+      <c r="C233" t="n">
+        <v>0.8446595072746277</v>
+      </c>
+      <c r="D233" t="inlineStr"/>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Britto_2016 - Bajta</t>
+        </is>
+      </c>
+      <c r="B234" s="3" t="inlineStr">
+        <is>
+          <t>site.temporal distance - geographical distance</t>
+        </is>
+      </c>
+      <c r="C234" t="n">
+        <v>0.7441734075546265</v>
+      </c>
+      <c r="D234" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Britto_2016 - Bajta</t>
+        </is>
+      </c>
+      <c r="B235" s="3" t="inlineStr">
+        <is>
+          <t>relationship.temporal distance - temporal distance</t>
+        </is>
+      </c>
+      <c r="C235" t="n">
+        <v>0.8855767250061035</v>
+      </c>
+      <c r="D235" t="inlineStr"/>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Britto_2016 - Bajta</t>
+        </is>
+      </c>
+      <c r="B236" s="3" t="inlineStr">
+        <is>
+          <t>relationship.temporal distance - geographical distance</t>
+        </is>
+      </c>
+      <c r="C236" t="n">
+        <v>0.7776802778244019</v>
+      </c>
+      <c r="D236" t="inlineStr"/>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Britto_2016 - Usman</t>
+        </is>
+      </c>
+      <c r="B237" s="3" t="inlineStr">
+        <is>
+          <t>semi-distributed - distributed: far offshore</t>
+        </is>
+      </c>
+      <c r="C237" t="n">
+        <v>0.7098071575164795</v>
+      </c>
+      <c r="D237" t="inlineStr"/>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Britto_2016 - Usman</t>
+        </is>
+      </c>
+      <c r="B238" s="3" t="inlineStr">
+        <is>
+          <t>semi-distributed - distributed: near offshore</t>
+        </is>
+      </c>
+      <c r="C238" t="n">
+        <v>0.7211360931396484</v>
+      </c>
+      <c r="D238" t="inlineStr"/>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Britto_2016 - Usman</t>
+        </is>
+      </c>
+      <c r="B239" s="3" t="inlineStr">
+        <is>
+          <t>semi-distributed - distribution</t>
+        </is>
+      </c>
+      <c r="C239" t="n">
+        <v>0.7192623019218445</v>
+      </c>
+      <c r="D239" t="inlineStr"/>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Britto_2016 - Usman</t>
+        </is>
+      </c>
+      <c r="B240" s="3" t="inlineStr">
+        <is>
+          <t>estimator &amp; provider - estimation entity.other</t>
+        </is>
+      </c>
+      <c r="C240" t="n">
+        <v>0.8102485537528992</v>
+      </c>
+      <c r="D240" t="inlineStr"/>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Britto_2016 - Usman</t>
+        </is>
+      </c>
+      <c r="B241" s="3" t="inlineStr">
+        <is>
+          <t>estimator &amp; provider - estimation techniques.other</t>
+        </is>
+      </c>
+      <c r="C241" t="n">
+        <v>0.7797582149505615</v>
+      </c>
+      <c r="D241" t="inlineStr"/>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Britto_2016 - Usman</t>
+        </is>
+      </c>
+      <c r="B242" s="3" t="inlineStr">
+        <is>
+          <t>estimator &amp; provider - estimate value(s)</t>
+        </is>
+      </c>
+      <c r="C242" t="n">
+        <v>0.7861266136169434</v>
+      </c>
+      <c r="D242" t="inlineStr"/>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Britto_2016 - Usman</t>
+        </is>
+      </c>
+      <c r="B243" s="3" t="inlineStr">
+        <is>
+          <t>relationship.location - co-located</t>
+        </is>
+      </c>
+      <c r="C243" t="n">
+        <v>0.7244809865951538</v>
+      </c>
+      <c r="D243" t="inlineStr"/>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Britto_2016 - Usman</t>
+        </is>
+      </c>
+      <c r="B244" s="3" t="inlineStr">
+        <is>
+          <t>centralized - co-located</t>
+        </is>
+      </c>
+      <c r="C244" t="n">
+        <v>0.7383195161819458</v>
+      </c>
+      <c r="D244" t="inlineStr"/>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Britto_2016 - Usman</t>
+        </is>
+      </c>
+      <c r="B245" s="3" t="inlineStr">
+        <is>
+          <t>estimator - estimation entity.other</t>
+        </is>
+      </c>
+      <c r="C245" t="n">
+        <v>0.8057889938354492</v>
+      </c>
+      <c r="D245" t="inlineStr"/>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Britto_2016 - Usman</t>
+        </is>
+      </c>
+      <c r="B246" s="3" t="inlineStr">
+        <is>
+          <t>estimator - estimation techniques.other</t>
+        </is>
+      </c>
+      <c r="C246" t="n">
+        <v>0.8582817316055298</v>
+      </c>
+      <c r="D246" t="inlineStr"/>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Britto_2016 - Usman</t>
+        </is>
+      </c>
+      <c r="B247" s="3" t="inlineStr">
+        <is>
+          <t>estimator - estimate value(s)</t>
+        </is>
+      </c>
+      <c r="C247" t="n">
+        <v>0.8379184603691101</v>
+      </c>
+      <c r="D247" t="inlineStr"/>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Britto_2016 - Usman</t>
+        </is>
+      </c>
+      <c r="B248" s="3" t="inlineStr">
+        <is>
+          <t>distributed - distributed: far offshore</t>
+        </is>
+      </c>
+      <c r="C248" t="n">
+        <v>0.7789257168769836</v>
+      </c>
+      <c r="D248" t="inlineStr"/>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Britto_2016 - Usman</t>
+        </is>
+      </c>
+      <c r="B249" s="3" t="inlineStr">
+        <is>
+          <t>distributed - distributed: distant onshore</t>
+        </is>
+      </c>
+      <c r="C249" t="n">
+        <v>0.7327319383621216</v>
+      </c>
+      <c r="D249" t="inlineStr"/>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Britto_2016 - Usman</t>
+        </is>
+      </c>
+      <c r="B250" s="3" t="inlineStr">
+        <is>
+          <t>distributed - co-located</t>
+        </is>
+      </c>
+      <c r="C250" t="n">
+        <v>0.7119356393814087</v>
+      </c>
+      <c r="D250" t="inlineStr"/>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Britto_2016 - Usman</t>
+        </is>
+      </c>
+      <c r="B251" s="3" t="inlineStr">
+        <is>
+          <t>distributed - distributed: near offshore</t>
+        </is>
+      </c>
+      <c r="C251" t="n">
+        <v>0.769045352935791</v>
+      </c>
+      <c r="D251" t="inlineStr"/>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Britto_2016 - Usman</t>
+        </is>
+      </c>
+      <c r="B252" s="3" t="inlineStr">
+        <is>
+          <t>distributed - distribution</t>
+        </is>
+      </c>
+      <c r="C252" t="n">
+        <v>0.8137379884719849</v>
+      </c>
+      <c r="D252" t="inlineStr"/>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Britto_2016 - Usman</t>
+        </is>
+      </c>
+      <c r="B253" s="3" t="inlineStr">
+        <is>
+          <t>distributed - distributed: close onshore</t>
+        </is>
+      </c>
+      <c r="C253" t="n">
+        <v>0.7368220686912537</v>
+      </c>
+      <c r="D253" t="inlineStr"/>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Dasthi - Bajta</t>
+        </is>
+      </c>
+      <c r="B254" s="3" t="inlineStr">
+        <is>
+          <t>expert judgment - expert judgment</t>
+        </is>
+      </c>
+      <c r="C254" t="n">
+        <v>0.9996162056922913</v>
+      </c>
+      <c r="D254" s="2" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Dasthi - Bajta</t>
+        </is>
+      </c>
+      <c r="B255" s="1" t="inlineStr">
+        <is>
+          <t>constructive cost model - constructive cost model</t>
+        </is>
+      </c>
+      <c r="C255" t="n">
+        <v>0.9986833930015564</v>
+      </c>
+      <c r="D255" s="2" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Dasthi - Bajta</t>
+        </is>
+      </c>
+      <c r="B256" s="3" t="inlineStr">
+        <is>
+          <t>artificial neural networks - machine learning</t>
+        </is>
+      </c>
+      <c r="C256" t="n">
+        <v>0.7277299761772156</v>
+      </c>
+      <c r="D256" t="inlineStr"/>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Dasthi - Bajta</t>
+        </is>
+      </c>
+      <c r="B257" s="3" t="inlineStr">
+        <is>
+          <t>fuzzy logic - fuzzy similar</t>
+        </is>
+      </c>
+      <c r="C257" t="n">
+        <v>0.7582831382751465</v>
+      </c>
+      <c r="D257" t="inlineStr"/>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Dasthi - Britto_2017</t>
+        </is>
+      </c>
+      <c r="B258" s="3" t="inlineStr">
+        <is>
+          <t>software life cycle management - software development experience</t>
+        </is>
+      </c>
+      <c r="C258" t="n">
+        <v>0.7001001834869385</v>
+      </c>
+      <c r="D258" t="inlineStr"/>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Dasthi - Usman</t>
+        </is>
+      </c>
+      <c r="B259" s="3" t="inlineStr">
+        <is>
+          <t>expert judgment - expert judgement</t>
+        </is>
+      </c>
+      <c r="C259" t="n">
+        <v>0.9810627102851868</v>
+      </c>
+      <c r="D259" t="inlineStr"/>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Dasthi - Usman</t>
+        </is>
+      </c>
+      <c r="B260" s="3" t="inlineStr">
+        <is>
+          <t>analogy-based - analogy</t>
+        </is>
+      </c>
+      <c r="C260" t="n">
+        <v>0.9315585494041443</v>
+      </c>
+      <c r="D260" t="inlineStr"/>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Mendes - Bajta</t>
+        </is>
+      </c>
+      <c r="B261" s="3" t="inlineStr">
+        <is>
+          <t>validated theoretically - not considered</t>
+        </is>
+      </c>
+      <c r="C261" t="n">
+        <v>0.7152584195137024</v>
+      </c>
+      <c r="D261" t="inlineStr"/>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Mendes - Bajta</t>
+        </is>
+      </c>
+      <c r="B262" s="3" t="inlineStr">
+        <is>
+          <t>validated theoretically - considered</t>
+        </is>
+      </c>
+      <c r="C262" t="n">
+        <v>0.7387984991073608</v>
+      </c>
+      <c r="D262" t="inlineStr"/>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Mendes - Bajta</t>
+        </is>
+      </c>
+      <c r="B263" s="3" t="inlineStr">
+        <is>
+          <t>functionality - implementation</t>
+        </is>
+      </c>
+      <c r="C263" t="n">
+        <v>0.7391546368598938</v>
+      </c>
+      <c r="D263" t="inlineStr"/>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Mendes - Bajta</t>
+        </is>
+      </c>
+      <c r="B264" s="3" t="inlineStr">
+        <is>
+          <t>functionality - performance</t>
+        </is>
+      </c>
+      <c r="C264" t="n">
+        <v>0.7225000262260437</v>
+      </c>
+      <c r="D264" t="inlineStr"/>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Mendes - Bajta</t>
+        </is>
+      </c>
+      <c r="B265" s="3" t="inlineStr">
+        <is>
+          <t>early size metric - size report</t>
+        </is>
+      </c>
+      <c r="C265" t="n">
+        <v>0.7613055109977722</v>
+      </c>
+      <c r="D265" t="inlineStr"/>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Mendes - Bajta</t>
+        </is>
+      </c>
+      <c r="B266" s="3" t="inlineStr">
+        <is>
+          <t>late size metric - size report</t>
+        </is>
+      </c>
+      <c r="C266" t="n">
+        <v>0.7081782221794128</v>
+      </c>
+      <c r="D266" t="inlineStr"/>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Mendes - Britto_2017</t>
+        </is>
+      </c>
+      <c r="B267" s="3" t="inlineStr">
+        <is>
+          <t>web software application - web objects</t>
+        </is>
+      </c>
+      <c r="C267" t="n">
+        <v>0.7544272541999817</v>
+      </c>
+      <c r="D267" t="inlineStr"/>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Mendes - Britto_2017</t>
+        </is>
+      </c>
+      <c r="B268" s="3" t="inlineStr">
+        <is>
+          <t>motivation - motivation level</t>
+        </is>
+      </c>
+      <c r="C268" t="n">
+        <v>0.9217793941497803</v>
+      </c>
+      <c r="D268" t="inlineStr"/>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Mendes - Britto_2017</t>
+        </is>
+      </c>
+      <c r="B269" s="3" t="inlineStr">
+        <is>
+          <t>program/script - program count</t>
+        </is>
+      </c>
+      <c r="C269" t="n">
+        <v>0.7155073881149292</v>
+      </c>
+      <c r="D269" t="inlineStr"/>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Mendes - Britto_2017</t>
+        </is>
+      </c>
+      <c r="B270" s="3" t="inlineStr">
+        <is>
+          <t>web hypermedia application - web objects</t>
+        </is>
+      </c>
+      <c r="C270" t="n">
+        <v>0.7174216508865356</v>
+      </c>
+      <c r="D270" t="inlineStr"/>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Mendes - Britto_2017</t>
+        </is>
+      </c>
+      <c r="B271" s="3" t="inlineStr">
+        <is>
+          <t>complexity - interface complexity</t>
+        </is>
+      </c>
+      <c r="C271" t="n">
+        <v>0.788794994354248</v>
+      </c>
+      <c r="D271" t="inlineStr"/>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Mendes - Britto_2017</t>
+        </is>
+      </c>
+      <c r="B272" s="3" t="inlineStr">
+        <is>
+          <t>complexity - control flow complexity</t>
+        </is>
+      </c>
+      <c r="C272" t="n">
+        <v>0.7521748542785645</v>
+      </c>
+      <c r="D272" t="inlineStr"/>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Mendes - Britto_2017</t>
+        </is>
+      </c>
+      <c r="B273" s="3" t="inlineStr">
+        <is>
+          <t>complexity - adaptation complexity</t>
+        </is>
+      </c>
+      <c r="C273" t="n">
+        <v>0.8014898300170898</v>
+      </c>
+      <c r="D273" t="inlineStr"/>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Mendes - Britto_2017</t>
+        </is>
+      </c>
+      <c r="B274" s="3" t="inlineStr">
+        <is>
+          <t>complexity - class complexity</t>
+        </is>
+      </c>
+      <c r="C274" t="n">
+        <v>0.859127938747406</v>
+      </c>
+      <c r="D274" t="inlineStr"/>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Mendes - Britto_2017</t>
+        </is>
+      </c>
+      <c r="B275" s="3" t="inlineStr">
+        <is>
+          <t>complexity - cyclomatic complexity</t>
+        </is>
+      </c>
+      <c r="C275" t="n">
+        <v>0.8227348923683167</v>
+      </c>
+      <c r="D275" t="inlineStr"/>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Mendes - Britto_2017</t>
+        </is>
+      </c>
+      <c r="B276" s="3" t="inlineStr">
+        <is>
+          <t>complexity - model collection complexity</t>
+        </is>
+      </c>
+      <c r="C276" t="n">
+        <v>0.7142325639724731</v>
+      </c>
+      <c r="D276" t="inlineStr"/>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Mendes - Britto_2017</t>
+        </is>
+      </c>
+      <c r="B277" s="3" t="inlineStr">
+        <is>
+          <t>complexity - difficulty level</t>
+        </is>
+      </c>
+      <c r="C277" t="n">
+        <v>0.7375029325485229</v>
+      </c>
+      <c r="D277" t="inlineStr"/>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Mendes - Britto_2017</t>
+        </is>
+      </c>
+      <c r="B278" s="3" t="inlineStr">
+        <is>
+          <t>complexity - data flow complexity</t>
+        </is>
+      </c>
+      <c r="C278" t="n">
+        <v>0.7816030383110046</v>
+      </c>
+      <c r="D278" t="inlineStr"/>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Mendes - Britto_2017</t>
+        </is>
+      </c>
+      <c r="B279" s="3" t="inlineStr">
+        <is>
+          <t>complexity - data usage complexity</t>
+        </is>
+      </c>
+      <c r="C279" t="n">
+        <v>0.7737072706222534</v>
+      </c>
+      <c r="D279" t="inlineStr"/>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Mendes - Britto_2017</t>
+        </is>
+      </c>
+      <c r="B280" s="3" t="inlineStr">
+        <is>
+          <t>complexity - cohesion complexity</t>
+        </is>
+      </c>
+      <c r="C280" t="n">
+        <v>0.7755804657936096</v>
+      </c>
+      <c r="D280" t="inlineStr"/>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Mendes - Britto_2017</t>
+        </is>
+      </c>
+      <c r="B281" s="3" t="inlineStr">
+        <is>
+          <t>complexity - page complexity</t>
+        </is>
+      </c>
+      <c r="C281" t="n">
+        <v>0.7730067372322083</v>
+      </c>
+      <c r="D281" t="inlineStr"/>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Mendes - Britto_2017</t>
+        </is>
+      </c>
+      <c r="B282" s="3" t="inlineStr">
+        <is>
+          <t>complexity - output complexity</t>
+        </is>
+      </c>
+      <c r="C282" t="n">
+        <v>0.851449728012085</v>
+      </c>
+      <c r="D282" t="inlineStr"/>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Mendes - Britto_2017</t>
+        </is>
+      </c>
+      <c r="B283" s="3" t="inlineStr">
+        <is>
+          <t>complexity - new complexity</t>
+        </is>
+      </c>
+      <c r="C283" t="n">
+        <v>0.9406249523162842</v>
+      </c>
+      <c r="D283" t="inlineStr"/>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Mendes - Britto_2017</t>
+        </is>
+      </c>
+      <c r="B284" s="3" t="inlineStr">
+        <is>
+          <t>complexity - input complexity</t>
+        </is>
+      </c>
+      <c r="C284" t="n">
+        <v>0.853631854057312</v>
+      </c>
+      <c r="D284" t="inlineStr"/>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Mendes - Britto_2017</t>
+        </is>
+      </c>
+      <c r="B285" s="3" t="inlineStr">
+        <is>
+          <t>complexity - component complexity</t>
+        </is>
+      </c>
+      <c r="C285" t="n">
+        <v>0.8429384827613831</v>
+      </c>
+      <c r="D285" t="inlineStr"/>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Mendes - Britto_2017</t>
+        </is>
+      </c>
+      <c r="B286" s="3" t="inlineStr">
+        <is>
+          <t>complexity - model association complexity</t>
+        </is>
+      </c>
+      <c r="C286" t="n">
+        <v>0.7396803498268127</v>
+      </c>
+      <c r="D286" t="inlineStr"/>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Mendes - Britto_2017</t>
+        </is>
+      </c>
+      <c r="B287" s="3" t="inlineStr">
+        <is>
+          <t>complexity - total complexity</t>
+        </is>
+      </c>
+      <c r="C287" t="n">
+        <v>0.9379963874816895</v>
+      </c>
+      <c r="D287" t="inlineStr"/>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Mendes - Britto_2017</t>
+        </is>
+      </c>
+      <c r="B288" s="3" t="inlineStr">
+        <is>
+          <t>complexity - layout complexity</t>
+        </is>
+      </c>
+      <c r="C288" t="n">
+        <v>0.7517379522323608</v>
+      </c>
+      <c r="D288" t="inlineStr"/>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Mendes - Britto_2017</t>
+        </is>
+      </c>
+      <c r="B289" s="3" t="inlineStr">
+        <is>
+          <t>model dependency.specific - project.type</t>
+        </is>
+      </c>
+      <c r="C289" t="n">
+        <v>0.7028049826622009</v>
+      </c>
+      <c r="D289" t="inlineStr"/>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Mendes - Britto_2017</t>
+        </is>
+      </c>
+      <c r="B290" s="3" t="inlineStr">
+        <is>
+          <t>class.length - class complexity</t>
+        </is>
+      </c>
+      <c r="C290" t="n">
+        <v>0.7628933191299438</v>
+      </c>
+      <c r="D290" t="inlineStr"/>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Mendes - Britto_2017</t>
+        </is>
+      </c>
+      <c r="B291" s="3" t="inlineStr">
+        <is>
+          <t>web application - web page allocation</t>
+        </is>
+      </c>
+      <c r="C291" t="n">
+        <v>0.7069319486618042</v>
+      </c>
+      <c r="D291" t="inlineStr"/>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Mendes - Britto_2017</t>
+        </is>
+      </c>
+      <c r="B292" s="3" t="inlineStr">
+        <is>
+          <t>web application - web objects</t>
+        </is>
+      </c>
+      <c r="C292" t="n">
+        <v>0.7908452749252319</v>
+      </c>
+      <c r="D292" t="inlineStr"/>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Mendes - Britto_2017</t>
+        </is>
+      </c>
+      <c r="B293" s="3" t="inlineStr">
+        <is>
+          <t>media - media count</t>
+        </is>
+      </c>
+      <c r="C293" t="n">
+        <v>0.8106052875518799</v>
+      </c>
+      <c r="D293" t="inlineStr"/>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Mendes - Britto_2017</t>
+        </is>
+      </c>
+      <c r="B294" s="3" t="inlineStr">
+        <is>
+          <t>media - new media count</t>
+        </is>
+      </c>
+      <c r="C294" t="n">
+        <v>0.7458544969558716</v>
+      </c>
+      <c r="D294" t="inlineStr"/>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Mendes - Britto_2017</t>
+        </is>
+      </c>
+      <c r="B295" s="3" t="inlineStr">
+        <is>
+          <t>media - media allocation</t>
+        </is>
+      </c>
+      <c r="C295" t="n">
+        <v>0.8105663657188416</v>
+      </c>
+      <c r="D295" t="inlineStr"/>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Mendes - Britto_2017</t>
+        </is>
+      </c>
+      <c r="B296" s="3" t="inlineStr">
+        <is>
+          <t>media - media duration</t>
+        </is>
+      </c>
+      <c r="C296" t="n">
+        <v>0.7906241416931152</v>
+      </c>
+      <c r="D296" t="inlineStr"/>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Mendes - Usman</t>
+        </is>
+      </c>
+      <c r="B297" s="3" t="inlineStr">
+        <is>
+          <t>validated theoretically - not considered</t>
+        </is>
+      </c>
+      <c r="C297" t="n">
+        <v>0.714630126953125</v>
+      </c>
+      <c r="D297" t="inlineStr"/>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Mendes - Usman</t>
+        </is>
+      </c>
+      <c r="B298" s="3" t="inlineStr">
+        <is>
+          <t>validated theoretically - considered</t>
+        </is>
+      </c>
+      <c r="C298" t="n">
+        <v>0.7386905550956726</v>
+      </c>
+      <c r="D298" t="inlineStr"/>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Mendes - Usman</t>
+        </is>
+      </c>
+      <c r="B299" s="3" t="inlineStr">
+        <is>
+          <t>functionality - use case</t>
+        </is>
+      </c>
+      <c r="C299" t="n">
+        <v>0.7057735323905945</v>
+      </c>
+      <c r="D299" t="inlineStr"/>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Mendes - Usman</t>
+        </is>
+      </c>
+      <c r="B300" s="3" t="inlineStr">
+        <is>
+          <t>functionality - maintainability</t>
+        </is>
+      </c>
+      <c r="C300" t="n">
+        <v>0.7046252489089966</v>
+      </c>
+      <c r="D300" t="inlineStr"/>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Mendes - Usman</t>
+        </is>
+      </c>
+      <c r="B301" s="3" t="inlineStr">
+        <is>
+          <t>functionality - task</t>
+        </is>
+      </c>
+      <c r="C301" t="n">
+        <v>0.7033266425132751</v>
+      </c>
+      <c r="D301" t="inlineStr"/>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Mendes - Usman</t>
+        </is>
+      </c>
+      <c r="B302" s="3" t="inlineStr">
+        <is>
+          <t>functionality - implementation</t>
+        </is>
+      </c>
+      <c r="C302" t="n">
+        <v>0.7415568232536316</v>
+      </c>
+      <c r="D302" t="inlineStr"/>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Mendes - Usman</t>
+        </is>
+      </c>
+      <c r="B303" s="3" t="inlineStr">
+        <is>
+          <t>functionality - non functional requirements.other</t>
+        </is>
+      </c>
+      <c r="C303" t="n">
+        <v>0.7386948466300964</v>
+      </c>
+      <c r="D303" t="inlineStr"/>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Mendes - Usman</t>
+        </is>
+      </c>
+      <c r="B304" s="3" t="inlineStr">
+        <is>
+          <t>functionality - performance</t>
+        </is>
+      </c>
+      <c r="C304" t="n">
+        <v>0.7259610891342163</v>
+      </c>
+      <c r="D304" t="inlineStr"/>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>Mendes - Usman</t>
+        </is>
+      </c>
+      <c r="B305" s="3" t="inlineStr">
+        <is>
+          <t>solution-oriented metric - considered without any metric</t>
+        </is>
+      </c>
+      <c r="C305" t="n">
+        <v>0.749022364616394</v>
+      </c>
+      <c r="D305" t="inlineStr"/>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>Mendes - Usman</t>
+        </is>
+      </c>
+      <c r="B306" s="3" t="inlineStr">
+        <is>
+          <t>early size metric - size.other</t>
+        </is>
+      </c>
+      <c r="C306" t="n">
+        <v>0.7397512197494507</v>
+      </c>
+      <c r="D306" t="inlineStr"/>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>Mendes - Usman</t>
+        </is>
+      </c>
+      <c r="B307" s="3" t="inlineStr">
+        <is>
+          <t>early size metric - considered without any metric</t>
+        </is>
+      </c>
+      <c r="C307" t="n">
+        <v>0.7296101450920105</v>
+      </c>
+      <c r="D307" t="inlineStr"/>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>Mendes - Usman</t>
+        </is>
+      </c>
+      <c r="B308" s="3" t="inlineStr">
+        <is>
+          <t>problem-oriented metric - considered without any metric</t>
+        </is>
+      </c>
+      <c r="C308" t="n">
+        <v>0.746099591255188</v>
+      </c>
+      <c r="D308" t="inlineStr"/>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>Mendes - Usman</t>
+        </is>
+      </c>
+      <c r="B309" s="3" t="inlineStr">
+        <is>
+          <t>late size metric - size.other</t>
+        </is>
+      </c>
+      <c r="C309" t="n">
+        <v>0.7195969820022583</v>
+      </c>
+      <c r="D309" t="inlineStr"/>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>Mendes - Usman</t>
+        </is>
+      </c>
+      <c r="B310" s="3" t="inlineStr">
+        <is>
+          <t>late size metric - considered without any metric</t>
+        </is>
+      </c>
+      <c r="C310" t="n">
+        <v>0.7456702589988708</v>
+      </c>
+      <c r="D310" t="inlineStr"/>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>Usman - Bajta</t>
+        </is>
+      </c>
+      <c r="B311" s="3" t="inlineStr">
+        <is>
+          <t>ideal hours - effort hours</t>
+        </is>
+      </c>
+      <c r="C311" t="n">
+        <v>0.7515992522239685</v>
+      </c>
+      <c r="D311" t="inlineStr"/>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>Usman - Bajta</t>
+        </is>
+      </c>
+      <c r="B312" s="3" t="inlineStr">
+        <is>
+          <t>size.other - size report</t>
+        </is>
+      </c>
+      <c r="C312" t="n">
+        <v>0.7925472855567932</v>
+      </c>
+      <c r="D312" t="inlineStr"/>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>Usman - Bajta</t>
+        </is>
+      </c>
+      <c r="B313" s="3" t="inlineStr">
+        <is>
+          <t>size.other - other</t>
+        </is>
+      </c>
+      <c r="C313" t="n">
+        <v>0.803325891494751</v>
+      </c>
+      <c r="D313" t="inlineStr"/>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>Usman - Bajta</t>
+        </is>
+      </c>
+      <c r="B314" s="3" t="inlineStr">
+        <is>
+          <t>effort estimate.type.other - effort hours</t>
+        </is>
+      </c>
+      <c r="C314" t="n">
+        <v>0.7721814513206482</v>
+      </c>
+      <c r="D314" t="inlineStr"/>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>Usman - Bajta</t>
+        </is>
+      </c>
+      <c r="B315" s="3" t="inlineStr">
+        <is>
+          <t>no. of team members - no of team members</t>
+        </is>
+      </c>
+      <c r="C315" t="n">
+        <v>0.9909900426864624</v>
+      </c>
+      <c r="D315" t="inlineStr"/>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>Usman - Bajta</t>
+        </is>
+      </c>
+      <c r="B316" s="3" t="inlineStr">
+        <is>
+          <t>not considered - not considered</t>
+        </is>
+      </c>
+      <c r="C316" t="n">
+        <v>0.9990763068199158</v>
+      </c>
+      <c r="D316" s="2" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>Usman - Bajta</t>
+        </is>
+      </c>
+      <c r="B317" s="3" t="inlineStr">
+        <is>
+          <t>not considered - considered</t>
+        </is>
+      </c>
+      <c r="C317" t="n">
+        <v>0.8873409032821655</v>
+      </c>
+      <c r="D317" t="inlineStr"/>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>Usman - Bajta</t>
+        </is>
+      </c>
+      <c r="B318" s="3" t="inlineStr">
+        <is>
+          <t>not considered - se</t>
+        </is>
+      </c>
+      <c r="C318" t="n">
+        <v>0.7181716561317444</v>
+      </c>
+      <c r="D318" t="inlineStr"/>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>Usman - Bajta</t>
+        </is>
+      </c>
+      <c r="B319" s="3" t="inlineStr">
+        <is>
+          <t>distributed: far offshore - near offshore</t>
+        </is>
+      </c>
+      <c r="C319" t="n">
+        <v>0.8222165703773499</v>
+      </c>
+      <c r="D319" t="inlineStr"/>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>Usman - Bajta</t>
+        </is>
+      </c>
+      <c r="B320" s="3" t="inlineStr">
+        <is>
+          <t>distributed: far offshore - far offshore</t>
+        </is>
+      </c>
+      <c r="C320" t="n">
+        <v>0.8532899618148804</v>
+      </c>
+      <c r="D320" t="inlineStr"/>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>Usman - Bajta</t>
+        </is>
+      </c>
+      <c r="B321" s="3" t="inlineStr">
+        <is>
+          <t>distributed: far offshore - distant onshore</t>
+        </is>
+      </c>
+      <c r="C321" t="n">
+        <v>0.8161802291870117</v>
+      </c>
+      <c r="D321" t="inlineStr"/>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>Usman - Bajta</t>
+        </is>
+      </c>
+      <c r="B322" s="3" t="inlineStr">
+        <is>
+          <t>distributed: distant onshore - near offshore</t>
+        </is>
+      </c>
+      <c r="C322" t="n">
+        <v>0.8129634261131287</v>
+      </c>
+      <c r="D322" t="inlineStr"/>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>Usman - Bajta</t>
+        </is>
+      </c>
+      <c r="B323" s="3" t="inlineStr">
+        <is>
+          <t>distributed: distant onshore - far offshore</t>
+        </is>
+      </c>
+      <c r="C323" t="n">
+        <v>0.8183981776237488</v>
+      </c>
+      <c r="D323" t="inlineStr"/>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>Usman - Bajta</t>
+        </is>
+      </c>
+      <c r="B324" s="3" t="inlineStr">
+        <is>
+          <t>distributed: distant onshore - close onshore</t>
+        </is>
+      </c>
+      <c r="C324" t="n">
+        <v>0.7459102869033813</v>
+      </c>
+      <c r="D324" t="inlineStr"/>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>Usman - Bajta</t>
+        </is>
+      </c>
+      <c r="B325" s="3" t="inlineStr">
+        <is>
+          <t>distributed: distant onshore - distant onshore</t>
+        </is>
+      </c>
+      <c r="C325" t="n">
+        <v>0.8980153799057007</v>
+      </c>
+      <c r="D325" t="inlineStr"/>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>Usman - Bajta</t>
+        </is>
+      </c>
+      <c r="B326" s="3" t="inlineStr">
+        <is>
+          <t>customized scrum - agile</t>
+        </is>
+      </c>
+      <c r="C326" t="n">
+        <v>0.701264500617981</v>
+      </c>
+      <c r="D326" t="inlineStr"/>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>Usman - Bajta</t>
+        </is>
+      </c>
+      <c r="B327" s="3" t="inlineStr">
+        <is>
+          <t>maintainability - maintainability</t>
+        </is>
+      </c>
+      <c r="C327" t="n">
+        <v>0.9992327690124512</v>
+      </c>
+      <c r="D327" s="2" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>Usman - Bajta</t>
+        </is>
+      </c>
+      <c r="B328" s="3" t="inlineStr">
+        <is>
+          <t>maintainability - availability</t>
+        </is>
+      </c>
+      <c r="C328" t="n">
+        <v>0.7220288515090942</v>
+      </c>
+      <c r="D328" t="inlineStr"/>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>Usman - Bajta</t>
+        </is>
+      </c>
+      <c r="B329" s="3" t="inlineStr">
+        <is>
+          <t>maintainability - reliability</t>
+        </is>
+      </c>
+      <c r="C329" t="n">
+        <v>0.8111286759376526</v>
+      </c>
+      <c r="D329" t="inlineStr"/>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>Usman - Bajta</t>
+        </is>
+      </c>
+      <c r="B330" s="3" t="inlineStr">
+        <is>
+          <t>maintainability - maintenance</t>
+        </is>
+      </c>
+      <c r="C330" t="n">
+        <v>0.828522801399231</v>
+      </c>
+      <c r="D330" t="inlineStr"/>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>Usman - Bajta</t>
+        </is>
+      </c>
+      <c r="B331" s="3" t="inlineStr">
+        <is>
+          <t>design - design</t>
+        </is>
+      </c>
+      <c r="C331" t="n">
+        <v>0.9980474710464478</v>
+      </c>
+      <c r="D331" s="2" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>Usman - Bajta</t>
+        </is>
+      </c>
+      <c r="B332" s="1" t="inlineStr">
+        <is>
+          <t>hours/days - effort hours</t>
+        </is>
+      </c>
+      <c r="C332" t="n">
+        <v>0.7930198907852173</v>
+      </c>
+      <c r="D332" t="inlineStr"/>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>Usman - Bajta</t>
+        </is>
+      </c>
+      <c r="B333" s="1" t="inlineStr">
+        <is>
+          <t>task - execution</t>
+        </is>
+      </c>
+      <c r="C333" t="n">
+        <v>0.705883264541626</v>
+      </c>
+      <c r="D333" t="inlineStr"/>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>Usman - Bajta</t>
+        </is>
+      </c>
+      <c r="B334" s="1" t="inlineStr">
+        <is>
+          <t>distributed: near offshore - near offshore</t>
+        </is>
+      </c>
+      <c r="C334" t="n">
+        <v>0.8869699239730835</v>
+      </c>
+      <c r="D334" t="inlineStr"/>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>Usman - Bajta</t>
+        </is>
+      </c>
+      <c r="B335" s="1" t="inlineStr">
+        <is>
+          <t>distributed: near offshore - far offshore</t>
+        </is>
+      </c>
+      <c r="C335" t="n">
+        <v>0.8723073601722717</v>
+      </c>
+      <c r="D335" t="inlineStr"/>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>Usman - Bajta</t>
+        </is>
+      </c>
+      <c r="B336" s="1" t="inlineStr">
+        <is>
+          <t>distributed: near offshore - close onshore</t>
+        </is>
+      </c>
+      <c r="C336" t="n">
+        <v>0.7458751201629639</v>
+      </c>
+      <c r="D336" t="inlineStr"/>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>Usman - Bajta</t>
+        </is>
+      </c>
+      <c r="B337" s="1" t="inlineStr">
+        <is>
+          <t>distributed: near offshore - distant onshore</t>
+        </is>
+      </c>
+      <c r="C337" t="n">
+        <v>0.8568334579467773</v>
+      </c>
+      <c r="D337" t="inlineStr"/>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>Usman - Bajta</t>
+        </is>
+      </c>
+      <c r="B338" s="1" t="inlineStr">
+        <is>
+          <t>communications industry - telecommunication</t>
+        </is>
+      </c>
+      <c r="C338" t="n">
+        <v>0.8585131764411926</v>
+      </c>
+      <c r="D338" t="inlineStr"/>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>Usman - Bajta</t>
+        </is>
+      </c>
+      <c r="B339" s="1" t="inlineStr">
+        <is>
+          <t>implementation - implementation</t>
+        </is>
+      </c>
+      <c r="C339" t="n">
+        <v>0.998166024684906</v>
+      </c>
+      <c r="D339" s="2" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>Usman - Bajta</t>
+        </is>
+      </c>
+      <c r="B340" s="1" t="inlineStr">
+        <is>
+          <t>implementation - performance</t>
+        </is>
+      </c>
+      <c r="C340" t="n">
+        <v>0.7070645689964294</v>
+      </c>
+      <c r="D340" t="inlineStr"/>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>Usman - Bajta</t>
+        </is>
+      </c>
+      <c r="B341" s="1" t="inlineStr">
+        <is>
+          <t>implementation - execution</t>
+        </is>
+      </c>
+      <c r="C341" t="n">
+        <v>0.7648810148239136</v>
+      </c>
+      <c r="D341" t="inlineStr"/>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>Usman - Bajta</t>
+        </is>
+      </c>
+      <c r="B342" s="1" t="inlineStr">
+        <is>
+          <t>project domain.other - other</t>
+        </is>
+      </c>
+      <c r="C342" t="n">
+        <v>0.7317880988121033</v>
+      </c>
+      <c r="D342" t="inlineStr"/>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>Usman - Bajta</t>
+        </is>
+      </c>
+      <c r="B343" s="1" t="inlineStr">
+        <is>
+          <t>estimation entity.other - estimate value</t>
+        </is>
+      </c>
+      <c r="C343" t="n">
+        <v>0.7749200463294983</v>
+      </c>
+      <c r="D343" t="inlineStr"/>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>Usman - Bajta</t>
+        </is>
+      </c>
+      <c r="B344" s="1" t="inlineStr">
+        <is>
+          <t>estimation entity.other - other</t>
+        </is>
+      </c>
+      <c r="C344" t="n">
+        <v>0.7068040370941162</v>
+      </c>
+      <c r="D344" t="inlineStr"/>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>Usman - Bajta</t>
+        </is>
+      </c>
+      <c r="B345" s="1" t="inlineStr">
+        <is>
+          <t>performance - implementation</t>
+        </is>
+      </c>
+      <c r="C345" t="n">
+        <v>0.7075313925743103</v>
+      </c>
+      <c r="D345" t="inlineStr"/>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>Usman - Bajta</t>
+        </is>
+      </c>
+      <c r="B346" s="1" t="inlineStr">
+        <is>
+          <t>performance - performance</t>
+        </is>
+      </c>
+      <c r="C346" t="n">
+        <v>0.9984179139137268</v>
+      </c>
+      <c r="D346" s="2" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>Usman - Bajta</t>
+        </is>
+      </c>
+      <c r="B347" s="1" t="inlineStr">
+        <is>
+          <t>performance - analysis</t>
+        </is>
+      </c>
+      <c r="C347" t="n">
+        <v>0.7094690799713135</v>
+      </c>
+      <c r="D347" t="inlineStr"/>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>Usman - Bajta</t>
+        </is>
+      </c>
+      <c r="B348" s="1" t="inlineStr">
+        <is>
+          <t>number of entities estimated.value - estimate value</t>
+        </is>
+      </c>
+      <c r="C348" t="n">
+        <v>0.7951658964157104</v>
+      </c>
+      <c r="D348" t="inlineStr"/>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>Usman - Bajta</t>
+        </is>
+      </c>
+      <c r="B349" s="1" t="inlineStr">
+        <is>
+          <t>estimation techniques.other - estimate value</t>
+        </is>
+      </c>
+      <c r="C349" t="n">
+        <v>0.787980318069458</v>
+      </c>
+      <c r="D349" t="inlineStr"/>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>Usman - Bajta</t>
+        </is>
+      </c>
+      <c r="B350" s="1" t="inlineStr">
+        <is>
+          <t>estimation techniques.other - group-based estimation</t>
+        </is>
+      </c>
+      <c r="C350" t="n">
+        <v>0.7344233989715576</v>
+      </c>
+      <c r="D350" t="inlineStr"/>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>Usman - Bajta</t>
+        </is>
+      </c>
+      <c r="B351" s="1" t="inlineStr">
+        <is>
+          <t>not used - not considered</t>
+        </is>
+      </c>
+      <c r="C351" t="n">
+        <v>0.752226710319519</v>
+      </c>
+      <c r="D351" t="inlineStr"/>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>Usman - Bajta</t>
+        </is>
+      </c>
+      <c r="B352" s="1" t="inlineStr">
+        <is>
+          <t>not used - considered</t>
+        </is>
+      </c>
+      <c r="C352" t="n">
+        <v>0.7085369229316711</v>
+      </c>
+      <c r="D352" t="inlineStr"/>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>Usman - Bajta</t>
+        </is>
+      </c>
+      <c r="B353" s="1" t="inlineStr">
+        <is>
+          <t>not used - se</t>
+        </is>
+      </c>
+      <c r="C353" t="n">
+        <v>0.7219755053520203</v>
+      </c>
+      <c r="D353" t="inlineStr"/>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>Usman - Bajta</t>
+        </is>
+      </c>
+      <c r="B354" s="1" t="inlineStr">
+        <is>
+          <t>analysis - performance</t>
+        </is>
+      </c>
+      <c r="C354" t="n">
+        <v>0.7127648591995239</v>
+      </c>
+      <c r="D354" t="inlineStr"/>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>Usman - Bajta</t>
+        </is>
+      </c>
+      <c r="B355" s="1" t="inlineStr">
+        <is>
+          <t>analysis - analysis</t>
+        </is>
+      </c>
+      <c r="C355" t="n">
+        <v>0.9993883371353149</v>
+      </c>
+      <c r="D355" s="2" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>Usman - Bajta</t>
+        </is>
+      </c>
+      <c r="B356" s="1" t="inlineStr">
+        <is>
+          <t>analysis - statistics analysis</t>
+        </is>
+      </c>
+      <c r="C356" t="n">
+        <v>0.8018680214881897</v>
+      </c>
+      <c r="D356" t="inlineStr"/>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>Usman - Bajta</t>
+        </is>
+      </c>
+      <c r="B357" s="1" t="inlineStr">
+        <is>
+          <t>analysis - considered</t>
+        </is>
+      </c>
+      <c r="C357" t="n">
+        <v>0.7007582187652588</v>
+      </c>
+      <c r="D357" t="inlineStr"/>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>Usman - Bajta</t>
+        </is>
+      </c>
+      <c r="B358" s="1" t="inlineStr">
+        <is>
+          <t>analysis - system investigation</t>
+        </is>
+      </c>
+      <c r="C358" t="n">
+        <v>0.7189403772354126</v>
+      </c>
+      <c r="D358" t="inlineStr"/>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>Usman - Bajta</t>
+        </is>
+      </c>
+      <c r="B359" s="1" t="inlineStr">
+        <is>
+          <t>distributed: close onshore - near offshore</t>
+        </is>
+      </c>
+      <c r="C359" t="n">
+        <v>0.8081480264663696</v>
+      </c>
+      <c r="D359" t="inlineStr"/>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>Usman - Bajta</t>
+        </is>
+      </c>
+      <c r="B360" s="1" t="inlineStr">
+        <is>
+          <t>distributed: close onshore - far offshore</t>
+        </is>
+      </c>
+      <c r="C360" t="n">
+        <v>0.7922305464744568</v>
+      </c>
+      <c r="D360" t="inlineStr"/>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>Usman - Bajta</t>
+        </is>
+      </c>
+      <c r="B361" s="1" t="inlineStr">
+        <is>
+          <t>distributed: close onshore - close onshore</t>
+        </is>
+      </c>
+      <c r="C361" t="n">
+        <v>0.8792787790298462</v>
+      </c>
+      <c r="D361" t="inlineStr"/>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>Usman - Bajta</t>
+        </is>
+      </c>
+      <c r="B362" s="1" t="inlineStr">
+        <is>
+          <t>distributed: close onshore - distant onshore</t>
+        </is>
+      </c>
+      <c r="C362" t="n">
+        <v>0.8333408832550049</v>
+      </c>
+      <c r="D362" t="inlineStr"/>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>Usman - Bajta</t>
+        </is>
+      </c>
+      <c r="B363" s="1" t="inlineStr">
+        <is>
+          <t>availability - maintainability</t>
+        </is>
+      </c>
+      <c r="C363" t="n">
+        <v>0.7201300859451294</v>
+      </c>
+      <c r="D363" t="inlineStr"/>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>Usman - Bajta</t>
+        </is>
+      </c>
+      <c r="B364" s="1" t="inlineStr">
+        <is>
+          <t>availability - availability</t>
+        </is>
+      </c>
+      <c r="C364" t="n">
+        <v>0.9965998530387878</v>
+      </c>
+      <c r="D364" s="2" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>Usman - Bajta</t>
+        </is>
+      </c>
+      <c r="B365" s="1" t="inlineStr">
+        <is>
+          <t>availability - reliability</t>
+        </is>
+      </c>
+      <c r="C365" t="n">
+        <v>0.7316735982894897</v>
+      </c>
+      <c r="D365" t="inlineStr"/>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>Usman - Bajta</t>
+        </is>
+      </c>
+      <c r="B366" s="1" t="inlineStr">
+        <is>
+          <t>security - security</t>
+        </is>
+      </c>
+      <c r="C366" t="n">
+        <v>0.9992525577545166</v>
+      </c>
+      <c r="D366" s="2" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>Usman - Bajta</t>
+        </is>
+      </c>
+      <c r="B367" s="3" t="inlineStr">
+        <is>
+          <t>reliability - maintainability</t>
+        </is>
+      </c>
+      <c r="C367" t="n">
+        <v>0.8082497715950012</v>
+      </c>
+      <c r="D367" t="inlineStr"/>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>Usman - Bajta</t>
+        </is>
+      </c>
+      <c r="B368" s="3" t="inlineStr">
+        <is>
+          <t>reliability - availability</t>
+        </is>
+      </c>
+      <c r="C368" t="n">
+        <v>0.7315148115158081</v>
+      </c>
+      <c r="D368" t="inlineStr"/>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>Usman - Bajta</t>
+        </is>
+      </c>
+      <c r="B369" s="3" t="inlineStr">
+        <is>
+          <t>reliability - reliability</t>
+        </is>
+      </c>
+      <c r="C369" t="n">
+        <v>0.999339759349823</v>
+      </c>
+      <c r="D369" s="2" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>Usman - Bajta</t>
+        </is>
+      </c>
+      <c r="B370" s="3" t="inlineStr">
+        <is>
+          <t>reliability - maintenance</t>
+        </is>
+      </c>
+      <c r="C370" t="n">
+        <v>0.7192368507385254</v>
+      </c>
+      <c r="D370" t="inlineStr"/>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>Usman - Bajta</t>
+        </is>
+      </c>
+      <c r="B371" s="3" t="inlineStr">
+        <is>
+          <t>unit.other - other</t>
+        </is>
+      </c>
+      <c r="C371" t="n">
+        <v>0.7928680181503296</v>
+      </c>
+      <c r="D371" t="inlineStr"/>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>Usman - Bajta</t>
+        </is>
+      </c>
+      <c r="B372" s="3" t="inlineStr">
+        <is>
+          <t>expert judgement - expert judgment</t>
+        </is>
+      </c>
+      <c r="C372" t="n">
+        <v>0.9825636744499207</v>
+      </c>
+      <c r="D372" t="inlineStr"/>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>Usman - Bajta</t>
+        </is>
+      </c>
+      <c r="B373" s="3" t="inlineStr">
+        <is>
+          <t>considered - not considered</t>
+        </is>
+      </c>
+      <c r="C373" t="n">
+        <v>0.8911197185516357</v>
+      </c>
+      <c r="D373" t="inlineStr"/>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>Usman - Bajta</t>
+        </is>
+      </c>
+      <c r="B374" s="3" t="inlineStr">
+        <is>
+          <t>considered - analysis</t>
+        </is>
+      </c>
+      <c r="C374" t="n">
+        <v>0.7034972310066223</v>
+      </c>
+      <c r="D374" t="inlineStr"/>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>Usman - Bajta</t>
+        </is>
+      </c>
+      <c r="B375" s="3" t="inlineStr">
+        <is>
+          <t>considered - considered</t>
+        </is>
+      </c>
+      <c r="C375" t="n">
+        <v>0.9997081160545349</v>
+      </c>
+      <c r="D375" s="2" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>Usman - Bajta</t>
+        </is>
+      </c>
+      <c r="B376" s="3" t="inlineStr">
+        <is>
+          <t>considered - se</t>
+        </is>
+      </c>
+      <c r="C376" t="n">
+        <v>0.740490198135376</v>
+      </c>
+      <c r="D376" t="inlineStr"/>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>Usman - Bajta</t>
+        </is>
+      </c>
+      <c r="B377" s="3" t="inlineStr">
+        <is>
+          <t>estimate value(s) - estimate value</t>
+        </is>
+      </c>
+      <c r="C377" t="n">
+        <v>0.9514560699462891</v>
+      </c>
+      <c r="D377" t="inlineStr"/>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>Usman - Bajta</t>
+        </is>
+      </c>
+      <c r="B378" s="3" t="inlineStr">
+        <is>
+          <t>estimate value(s) - value</t>
+        </is>
+      </c>
+      <c r="C378" t="n">
+        <v>0.7318357825279236</v>
+      </c>
+      <c r="D378" t="inlineStr"/>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>Usman - Bajta</t>
+        </is>
+      </c>
+      <c r="B379" s="3" t="inlineStr">
+        <is>
+          <t>single - individual</t>
+        </is>
+      </c>
+      <c r="C379" t="n">
+        <v>0.7275663614273071</v>
+      </c>
+      <c r="D379" t="inlineStr"/>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>Usman - Bajta</t>
+        </is>
+      </c>
+      <c r="B380" s="3" t="inlineStr">
+        <is>
+          <t>health - healthcare</t>
+        </is>
+      </c>
+      <c r="C380" t="n">
+        <v>0.8557877540588379</v>
+      </c>
+      <c r="D380" t="inlineStr"/>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>Usman - Bajta</t>
+        </is>
+      </c>
+      <c r="B381" s="3" t="inlineStr">
+        <is>
+          <t>financial - finance</t>
+        </is>
+      </c>
+      <c r="C381" t="n">
+        <v>0.8919347524642944</v>
+      </c>
+      <c r="D381" t="inlineStr"/>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>Usman - Bajta</t>
+        </is>
+      </c>
+      <c r="B382" s="3" t="inlineStr">
+        <is>
+          <t>not applicable - not considered</t>
+        </is>
+      </c>
+      <c r="C382" t="n">
+        <v>0.8105612993240356</v>
+      </c>
+      <c r="D382" t="inlineStr"/>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>Usman - Bajta</t>
+        </is>
+      </c>
+      <c r="B383" s="3" t="inlineStr">
+        <is>
+          <t>not applicable - considered</t>
+        </is>
+      </c>
+      <c r="C383" t="n">
+        <v>0.737736701965332</v>
+      </c>
+      <c r="D383" t="inlineStr"/>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>Usman - Bajta</t>
+        </is>
+      </c>
+      <c r="B384" s="3" t="inlineStr">
+        <is>
+          <t>not applicable - se</t>
+        </is>
+      </c>
+      <c r="C384" t="n">
+        <v>0.7277210354804993</v>
+      </c>
+      <c r="D384" t="inlineStr"/>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>Usman - Bajta</t>
+        </is>
+      </c>
+      <c r="B385" s="3" t="inlineStr">
+        <is>
+          <t>testing - testing</t>
+        </is>
+      </c>
+      <c r="C385" t="n">
+        <v>0.9974274039268494</v>
+      </c>
+      <c r="D385" s="2" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>Usman - Bajta</t>
+        </is>
+      </c>
+      <c r="B386" s="1" t="inlineStr">
+        <is>
+          <t>scrum - agile</t>
+        </is>
+      </c>
+      <c r="C386" t="n">
+        <v>0.7592173218727112</v>
+      </c>
+      <c r="D386" t="inlineStr"/>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>Usman - Bajta</t>
+        </is>
+      </c>
+      <c r="B387" s="1" t="inlineStr">
+        <is>
+          <t>maintenance - maintainability</t>
+        </is>
+      </c>
+      <c r="C387" t="n">
+        <v>0.8295069336891174</v>
+      </c>
+      <c r="D387" t="inlineStr"/>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>Usman - Bajta</t>
+        </is>
+      </c>
+      <c r="B388" s="1" t="inlineStr">
+        <is>
+          <t>maintenance - reliability</t>
+        </is>
+      </c>
+      <c r="C388" t="n">
+        <v>0.7194461822509766</v>
+      </c>
+      <c r="D388" t="inlineStr"/>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>Usman - Bajta</t>
+        </is>
+      </c>
+      <c r="B389" s="1" t="inlineStr">
+        <is>
+          <t>maintenance - maintenance</t>
+        </is>
+      </c>
+      <c r="C389" t="n">
+        <v>0.9997087717056274</v>
+      </c>
+      <c r="D389" s="2" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>Usman - Bajta</t>
+        </is>
+      </c>
+      <c r="B390" s="3" t="inlineStr">
+        <is>
+          <t>actual effort.value - estimate value</t>
+        </is>
+      </c>
+      <c r="C390" t="n">
+        <v>0.7177343964576721</v>
+      </c>
+      <c r="D390" t="inlineStr"/>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>Usman - Bajta</t>
+        </is>
+      </c>
+      <c r="B391" s="3" t="inlineStr">
+        <is>
+          <t>actual effort.value - value</t>
+        </is>
+      </c>
+      <c r="C391" t="n">
+        <v>0.7109509110450745</v>
+      </c>
+      <c r="D391" t="inlineStr"/>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>Usman - Bajta</t>
+        </is>
+      </c>
+      <c r="B392" s="3" t="inlineStr">
+        <is>
+          <t>actual effort.value - effort hours</t>
+        </is>
+      </c>
+      <c r="C392" t="n">
+        <v>0.816739022731781</v>
+      </c>
+      <c r="D392" t="inlineStr"/>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>Usman - Britto_2017</t>
+        </is>
+      </c>
+      <c r="B393" s="3" t="inlineStr">
+        <is>
+          <t>effort estimate.type.other - project.type</t>
+        </is>
+      </c>
+      <c r="C393" t="n">
+        <v>0.7216285467147827</v>
+      </c>
+      <c r="D393" t="inlineStr"/>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>Usman - Britto_2017</t>
+        </is>
+      </c>
+      <c r="B394" s="3" t="inlineStr">
+        <is>
+          <t>use case - use case count</t>
+        </is>
+      </c>
+      <c r="C394" t="n">
+        <v>0.7909183502197266</v>
+      </c>
+      <c r="D394" t="inlineStr"/>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>Usman - Britto_2017</t>
+        </is>
+      </c>
+      <c r="B395" s="3" t="inlineStr">
+        <is>
+          <t>no. of team members - team capability</t>
+        </is>
+      </c>
+      <c r="C395" t="n">
+        <v>0.763181746006012</v>
+      </c>
+      <c r="D395" t="inlineStr"/>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>Usman - Britto_2017</t>
+        </is>
+      </c>
+      <c r="B396" s="3" t="inlineStr">
+        <is>
+          <t>no. of team members - work team level</t>
+        </is>
+      </c>
+      <c r="C396" t="n">
+        <v>0.7996017932891846</v>
+      </c>
+      <c r="D396" t="inlineStr"/>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>Usman - Britto_2017</t>
+        </is>
+      </c>
+      <c r="B397" s="3" t="inlineStr">
+        <is>
+          <t>no. of team members - team size</t>
+        </is>
+      </c>
+      <c r="C397" t="n">
+        <v>0.8902832269668579</v>
+      </c>
+      <c r="D397" t="inlineStr"/>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>Usman - Britto_2017</t>
+        </is>
+      </c>
+      <c r="B398" s="3" t="inlineStr">
+        <is>
+          <t>use case points method - use case count</t>
+        </is>
+      </c>
+      <c r="C398" t="n">
+        <v>0.7364347577095032</v>
+      </c>
+      <c r="D398" t="inlineStr"/>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>Usman - Britto_2017</t>
+        </is>
+      </c>
+      <c r="B399" s="3" t="inlineStr">
+        <is>
+          <t>function points - international function point users group</t>
+        </is>
+      </c>
+      <c r="C399" t="n">
+        <v>0.7130600214004517</v>
+      </c>
+      <c r="D399" t="inlineStr"/>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>Usman - Britto_2017</t>
+        </is>
+      </c>
+      <c r="B400" s="3" t="inlineStr">
+        <is>
+          <t>function points - object-oriented function points</t>
+        </is>
+      </c>
+      <c r="C400" t="n">
+        <v>0.8043677806854248</v>
+      </c>
+      <c r="D400" t="inlineStr"/>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>Usman - Britto_2017</t>
+        </is>
+      </c>
+      <c r="B401" s="3" t="inlineStr">
+        <is>
+          <t>function points - object-oriented heuristic function points</t>
+        </is>
+      </c>
+      <c r="C401" t="n">
+        <v>0.7119852900505066</v>
+      </c>
+      <c r="D401" t="inlineStr"/>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>Usman - Britto_2017</t>
+        </is>
+      </c>
+      <c r="B402" s="3" t="inlineStr">
+        <is>
+          <t>point - data web points</t>
+        </is>
+      </c>
+      <c r="C402" t="n">
+        <v>0.7063830494880676</v>
+      </c>
+      <c r="D402" t="inlineStr"/>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>Usman - Britto_2017</t>
+        </is>
+      </c>
+      <c r="B403" s="3" t="inlineStr">
+        <is>
+          <t>point - object-oriented function points</t>
+        </is>
+      </c>
+      <c r="C403" t="n">
+        <v>0.7208200097084045</v>
+      </c>
+      <c r="D403" t="inlineStr"/>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>Usman - Britto_2017</t>
+        </is>
+      </c>
+      <c r="B404" s="3" t="inlineStr">
+        <is>
+          <t>maintainability - portability level</t>
+        </is>
+      </c>
+      <c r="C404" t="n">
+        <v>0.7062346935272217</v>
+      </c>
+      <c r="D404" t="inlineStr"/>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>Usman - Britto_2017</t>
+        </is>
+      </c>
+      <c r="B405" s="3" t="inlineStr">
+        <is>
+          <t>maintainability - installability level</t>
+        </is>
+      </c>
+      <c r="C405" t="n">
+        <v>0.7047934532165527</v>
+      </c>
+      <c r="D405" t="inlineStr"/>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>Usman - Britto_2017</t>
+        </is>
+      </c>
+      <c r="B406" s="3" t="inlineStr">
+        <is>
+          <t>maintainability - maintainability level</t>
+        </is>
+      </c>
+      <c r="C406" t="n">
+        <v>0.9345709681510925</v>
+      </c>
+      <c r="D406" t="inlineStr"/>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>Usman - Britto_2017</t>
+        </is>
+      </c>
+      <c r="B407" s="3" t="inlineStr">
+        <is>
+          <t>maintainability - reliability level</t>
+        </is>
+      </c>
+      <c r="C407" t="n">
+        <v>0.7501024007797241</v>
+      </c>
+      <c r="D407" t="inlineStr"/>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>Usman - Britto_2017</t>
+        </is>
+      </c>
+      <c r="B408" s="3" t="inlineStr">
+        <is>
+          <t>maintainability - reusability level</t>
+        </is>
+      </c>
+      <c r="C408" t="n">
+        <v>0.7171540260314941</v>
+      </c>
+      <c r="D408" t="inlineStr"/>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>Usman - Britto_2017</t>
+        </is>
+      </c>
+      <c r="B409" s="3" t="inlineStr">
+        <is>
+          <t>design - architecture</t>
+        </is>
+      </c>
+      <c r="C409" t="n">
+        <v>0.7758017778396606</v>
+      </c>
+      <c r="D409" t="inlineStr"/>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>Usman - Britto_2017</t>
+        </is>
+      </c>
+      <c r="B410" s="3" t="inlineStr">
+        <is>
+          <t>hours/days - time restriction</t>
+        </is>
+      </c>
+      <c r="C410" t="n">
+        <v>0.7245569229125977</v>
+      </c>
+      <c r="D410" t="inlineStr"/>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>Usman - Britto_2017</t>
+        </is>
+      </c>
+      <c r="B411" s="3" t="inlineStr">
+        <is>
+          <t>accuracy level.value - quality level</t>
+        </is>
+      </c>
+      <c r="C411" t="n">
+        <v>0.7021670341491699</v>
+      </c>
+      <c r="D411" t="inlineStr"/>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>Usman - Britto_2017</t>
+        </is>
+      </c>
+      <c r="B412" s="3" t="inlineStr">
+        <is>
+          <t>implementation - installability level</t>
+        </is>
+      </c>
+      <c r="C412" t="n">
+        <v>0.7037801742553711</v>
+      </c>
+      <c r="D412" t="inlineStr"/>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>Usman - Britto_2017</t>
+        </is>
+      </c>
+      <c r="B413" s="3" t="inlineStr">
+        <is>
+          <t>non functional requirements.other - requirements novelty level</t>
+        </is>
+      </c>
+      <c r="C413" t="n">
+        <v>0.7913196086883545</v>
+      </c>
+      <c r="D413" t="inlineStr"/>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>Usman - Britto_2017</t>
+        </is>
+      </c>
+      <c r="B414" s="3" t="inlineStr">
+        <is>
+          <t>non functional requirements.other - requirements clarity level</t>
+        </is>
+      </c>
+      <c r="C414" t="n">
+        <v>0.7976760268211365</v>
+      </c>
+      <c r="D414" t="inlineStr"/>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>Usman - Britto_2017</t>
+        </is>
+      </c>
+      <c r="B415" s="3" t="inlineStr">
+        <is>
+          <t>non functional requirements.other - processing requirements</t>
+        </is>
+      </c>
+      <c r="C415" t="n">
+        <v>0.7091773748397827</v>
+      </c>
+      <c r="D415" t="inlineStr"/>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>Usman - Britto_2017</t>
+        </is>
+      </c>
+      <c r="B416" s="3" t="inlineStr">
+        <is>
+          <t>non functional requirements.other - requirements volatility level</t>
+        </is>
+      </c>
+      <c r="C416" t="n">
+        <v>0.7031106352806091</v>
+      </c>
+      <c r="D416" t="inlineStr"/>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>Usman - Britto_2017</t>
+        </is>
+      </c>
+      <c r="B417" s="3" t="inlineStr">
+        <is>
+          <t>project domain.other - project.infrastructure</t>
+        </is>
+      </c>
+      <c r="C417" t="n">
+        <v>0.8091544508934021</v>
+      </c>
+      <c r="D417" t="inlineStr"/>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>Usman - Britto_2017</t>
+        </is>
+      </c>
+      <c r="B418" s="3" t="inlineStr">
+        <is>
+          <t>project domain.other - project.type</t>
+        </is>
+      </c>
+      <c r="C418" t="n">
+        <v>0.7781206369400024</v>
+      </c>
+      <c r="D418" t="inlineStr"/>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>Usman - Britto_2017</t>
+        </is>
+      </c>
+      <c r="B419" s="3" t="inlineStr">
+        <is>
+          <t>estimation entity.other - entity count</t>
+        </is>
+      </c>
+      <c r="C419" t="n">
+        <v>0.730510950088501</v>
+      </c>
+      <c r="D419" t="inlineStr"/>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>Usman - Britto_2017</t>
+        </is>
+      </c>
+      <c r="B420" s="3" t="inlineStr">
+        <is>
+          <t>performance - time efficiency level</t>
+        </is>
+      </c>
+      <c r="C420" t="n">
+        <v>0.7261173129081726</v>
+      </c>
+      <c r="D420" t="inlineStr"/>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>Usman - Britto_2017</t>
+        </is>
+      </c>
+      <c r="B421" s="3" t="inlineStr">
+        <is>
+          <t>performance - process efficiency level</t>
+        </is>
+      </c>
+      <c r="C421" t="n">
+        <v>0.7163597345352173</v>
+      </c>
+      <c r="D421" t="inlineStr"/>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>Usman - Britto_2017</t>
+        </is>
+      </c>
+      <c r="B422" s="3" t="inlineStr">
+        <is>
+          <t>performance - quality level</t>
+        </is>
+      </c>
+      <c r="C422" t="n">
+        <v>0.7244912981987</v>
+      </c>
+      <c r="D422" t="inlineStr"/>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>Usman - Britto_2017</t>
+        </is>
+      </c>
+      <c r="B423" s="3" t="inlineStr">
+        <is>
+          <t>number of entities estimated.value - entity count</t>
+        </is>
+      </c>
+      <c r="C423" t="n">
+        <v>0.8497437238693237</v>
+      </c>
+      <c r="D423" t="inlineStr"/>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>Usman - Britto_2017</t>
+        </is>
+      </c>
+      <c r="B424" s="3" t="inlineStr">
+        <is>
+          <t>not used - use case count</t>
+        </is>
+      </c>
+      <c r="C424" t="n">
+        <v>0.714119017124176</v>
+      </c>
+      <c r="D424" t="inlineStr"/>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>Usman - Britto_2017</t>
+        </is>
+      </c>
+      <c r="B425" s="3" t="inlineStr">
+        <is>
+          <t>not used - reusability level</t>
+        </is>
+      </c>
+      <c r="C425" t="n">
+        <v>0.7030714750289917</v>
+      </c>
+      <c r="D425" t="inlineStr"/>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>Usman - Britto_2017</t>
+        </is>
+      </c>
+      <c r="B426" s="3" t="inlineStr">
+        <is>
+          <t>availability - availability level</t>
+        </is>
+      </c>
+      <c r="C426" t="n">
+        <v>0.9192028045654297</v>
+      </c>
+      <c r="D426" t="inlineStr"/>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>Usman - Britto_2017</t>
+        </is>
+      </c>
+      <c r="B427" s="3" t="inlineStr">
+        <is>
+          <t>availability - reliability level</t>
+        </is>
+      </c>
+      <c r="C427" t="n">
+        <v>0.7083181738853455</v>
+      </c>
+      <c r="D427" t="inlineStr"/>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>Usman - Britto_2017</t>
+        </is>
+      </c>
+      <c r="B428" s="3" t="inlineStr">
+        <is>
+          <t>security - security level</t>
+        </is>
+      </c>
+      <c r="C428" t="n">
+        <v>0.8791960477828979</v>
+      </c>
+      <c r="D428" t="inlineStr"/>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>Usman - Britto_2017</t>
+        </is>
+      </c>
+      <c r="B429" s="3" t="inlineStr">
+        <is>
+          <t>reliability - robustness level</t>
+        </is>
+      </c>
+      <c r="C429" t="n">
+        <v>0.7322574853897095</v>
+      </c>
+      <c r="D429" t="inlineStr"/>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>Usman - Britto_2017</t>
+        </is>
+      </c>
+      <c r="B430" s="3" t="inlineStr">
+        <is>
+          <t>reliability - maintainability level</t>
+        </is>
+      </c>
+      <c r="C430" t="n">
+        <v>0.7490963339805603</v>
+      </c>
+      <c r="D430" t="inlineStr"/>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>Usman - Britto_2017</t>
+        </is>
+      </c>
+      <c r="B431" s="3" t="inlineStr">
+        <is>
+          <t>reliability - reliability level</t>
+        </is>
+      </c>
+      <c r="C431" t="n">
+        <v>0.9038812518119812</v>
+      </c>
+      <c r="D431" t="inlineStr"/>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>Usman - Britto_2017</t>
+        </is>
+      </c>
+      <c r="B432" s="3" t="inlineStr">
+        <is>
+          <t>user case points - use case count</t>
+        </is>
+      </c>
+      <c r="C432" t="n">
+        <v>0.7830620408058167</v>
+      </c>
+      <c r="D432" t="inlineStr"/>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>Usman - Britto_2017</t>
+        </is>
+      </c>
+      <c r="B433" s="3" t="inlineStr">
+        <is>
+          <t>testing - testability level</t>
+        </is>
+      </c>
+      <c r="C433" t="n">
+        <v>0.7862407565116882</v>
+      </c>
+      <c r="D433" t="inlineStr"/>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>Usman - Britto_2017</t>
+        </is>
+      </c>
+      <c r="B434" s="3" t="inlineStr">
+        <is>
+          <t>maintenance - maintainability level</t>
+        </is>
+      </c>
+      <c r="C434" t="n">
+        <v>0.769431471824646</v>
+      </c>
+      <c r="D434" t="inlineStr"/>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>Usman - Britto_2016</t>
+        </is>
+      </c>
+      <c r="B435" s="3" t="inlineStr">
+        <is>
+          <t>distributed: far offshore - semi-distributed</t>
+        </is>
+      </c>
+      <c r="C435" t="n">
+        <v>0.7098071575164795</v>
+      </c>
+      <c r="D435" t="inlineStr"/>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>Usman - Britto_2016</t>
+        </is>
+      </c>
+      <c r="B436" s="3" t="inlineStr">
+        <is>
+          <t>distributed: far offshore - distributed</t>
+        </is>
+      </c>
+      <c r="C436" t="n">
+        <v>0.7789257168769836</v>
+      </c>
+      <c r="D436" t="inlineStr"/>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>Usman - Britto_2016</t>
+        </is>
+      </c>
+      <c r="B437" s="3" t="inlineStr">
+        <is>
+          <t>distributed: distant onshore - distributed</t>
+        </is>
+      </c>
+      <c r="C437" t="n">
+        <v>0.7327319383621216</v>
+      </c>
+      <c r="D437" t="inlineStr"/>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>Usman - Britto_2016</t>
+        </is>
+      </c>
+      <c r="B438" s="3" t="inlineStr">
+        <is>
+          <t>co-located - relationship.location</t>
+        </is>
+      </c>
+      <c r="C438" t="n">
+        <v>0.7244811058044434</v>
+      </c>
+      <c r="D438" t="inlineStr"/>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>Usman - Britto_2016</t>
+        </is>
+      </c>
+      <c r="B439" s="3" t="inlineStr">
+        <is>
+          <t>co-located - centralized</t>
+        </is>
+      </c>
+      <c r="C439" t="n">
+        <v>0.7383195161819458</v>
+      </c>
+      <c r="D439" t="inlineStr"/>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>Usman - Britto_2016</t>
+        </is>
+      </c>
+      <c r="B440" s="3" t="inlineStr">
+        <is>
+          <t>co-located - distributed</t>
+        </is>
+      </c>
+      <c r="C440" t="n">
+        <v>0.7119355797767639</v>
+      </c>
+      <c r="D440" t="inlineStr"/>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>Usman - Britto_2016</t>
+        </is>
+      </c>
+      <c r="B441" s="3" t="inlineStr">
+        <is>
+          <t>distributed: near offshore - semi-distributed</t>
+        </is>
+      </c>
+      <c r="C441" t="n">
+        <v>0.7211359739303589</v>
+      </c>
+      <c r="D441" t="inlineStr"/>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>Usman - Britto_2016</t>
+        </is>
+      </c>
+      <c r="B442" s="3" t="inlineStr">
+        <is>
+          <t>distributed: near offshore - distributed</t>
+        </is>
+      </c>
+      <c r="C442" t="n">
+        <v>0.7690450549125671</v>
+      </c>
+      <c r="D442" t="inlineStr"/>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>Usman - Britto_2016</t>
+        </is>
+      </c>
+      <c r="B443" s="3" t="inlineStr">
+        <is>
+          <t>estimation entity.other - estimator &amp; provider</t>
+        </is>
+      </c>
+      <c r="C443" t="n">
+        <v>0.8102485537528992</v>
+      </c>
+      <c r="D443" t="inlineStr"/>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>Usman - Britto_2016</t>
+        </is>
+      </c>
+      <c r="B444" s="3" t="inlineStr">
+        <is>
+          <t>estimation entity.other - estimator</t>
+        </is>
+      </c>
+      <c r="C444" t="n">
+        <v>0.8057889938354492</v>
+      </c>
+      <c r="D444" t="inlineStr"/>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>Usman - Britto_2016</t>
+        </is>
+      </c>
+      <c r="B445" s="3" t="inlineStr">
+        <is>
+          <t>distribution - semi-distributed</t>
+        </is>
+      </c>
+      <c r="C445" t="n">
+        <v>0.7192623019218445</v>
+      </c>
+      <c r="D445" t="inlineStr"/>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>Usman - Britto_2016</t>
+        </is>
+      </c>
+      <c r="B446" s="3" t="inlineStr">
+        <is>
+          <t>distribution - distributed</t>
+        </is>
+      </c>
+      <c r="C446" t="n">
+        <v>0.8137379884719849</v>
+      </c>
+      <c r="D446" t="inlineStr"/>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>Usman - Britto_2016</t>
+        </is>
+      </c>
+      <c r="B447" s="3" t="inlineStr">
+        <is>
+          <t>estimation techniques.other - estimator &amp; provider</t>
+        </is>
+      </c>
+      <c r="C447" t="n">
+        <v>0.7797582149505615</v>
+      </c>
+      <c r="D447" t="inlineStr"/>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>Usman - Britto_2016</t>
+        </is>
+      </c>
+      <c r="B448" s="3" t="inlineStr">
+        <is>
+          <t>estimation techniques.other - estimator</t>
+        </is>
+      </c>
+      <c r="C448" t="n">
+        <v>0.8582817316055298</v>
+      </c>
+      <c r="D448" t="inlineStr"/>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>Usman - Britto_2016</t>
+        </is>
+      </c>
+      <c r="B449" s="3" t="inlineStr">
+        <is>
+          <t>distributed: close onshore - distributed</t>
+        </is>
+      </c>
+      <c r="C449" t="n">
+        <v>0.7368220686912537</v>
+      </c>
+      <c r="D449" t="inlineStr"/>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>Usman - Britto_2016</t>
+        </is>
+      </c>
+      <c r="B450" s="3" t="inlineStr">
+        <is>
+          <t>estimate value(s) - estimator &amp; provider</t>
+        </is>
+      </c>
+      <c r="C450" t="n">
+        <v>0.7861266136169434</v>
+      </c>
+      <c r="D450" t="inlineStr"/>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>Usman - Britto_2016</t>
+        </is>
+      </c>
+      <c r="B451" s="3" t="inlineStr">
+        <is>
+          <t>estimate value(s) - estimator</t>
+        </is>
+      </c>
+      <c r="C451" t="n">
+        <v>0.8379184603691101</v>
+      </c>
+      <c r="D451" t="inlineStr"/>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>Usman - Dasthi</t>
+        </is>
+      </c>
+      <c r="B452" s="3" t="inlineStr">
+        <is>
+          <t>analogy - analogy-based</t>
+        </is>
+      </c>
+      <c r="C452" t="n">
+        <v>0.9315585494041443</v>
+      </c>
+      <c r="D452" t="inlineStr"/>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>Usman - Dasthi</t>
+        </is>
+      </c>
+      <c r="B453" s="3" t="inlineStr">
+        <is>
+          <t>expert judgement - expert judgment</t>
+        </is>
+      </c>
+      <c r="C453" t="n">
+        <v>0.9810627102851868</v>
+      </c>
+      <c r="D453" t="inlineStr"/>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
           <t>Usman - Mendes</t>
         </is>
       </c>
-      <c r="B125" s="3" t="inlineStr">
-        <is>
-          <t>other - other</t>
-        </is>
-      </c>
-      <c r="C125" t="n">
-        <v>0.9990108013153076</v>
-      </c>
-      <c r="D125" s="2" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
+      <c r="B454" s="3" t="inlineStr">
+        <is>
+          <t>size.other - early size metric</t>
+        </is>
+      </c>
+      <c r="C454" t="n">
+        <v>0.7397513389587402</v>
+      </c>
+      <c r="D454" t="inlineStr"/>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>Usman - Mendes</t>
+        </is>
+      </c>
+      <c r="B455" s="3" t="inlineStr">
+        <is>
+          <t>size.other - late size metric</t>
+        </is>
+      </c>
+      <c r="C455" t="n">
+        <v>0.7195971608161926</v>
+      </c>
+      <c r="D455" t="inlineStr"/>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>Usman - Mendes</t>
+        </is>
+      </c>
+      <c r="B456" s="3" t="inlineStr">
+        <is>
+          <t>use case - functionality</t>
+        </is>
+      </c>
+      <c r="C456" t="n">
+        <v>0.7057737112045288</v>
+      </c>
+      <c r="D456" t="inlineStr"/>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>Usman - Mendes</t>
+        </is>
+      </c>
+      <c r="B457" s="3" t="inlineStr">
+        <is>
+          <t>not considered - validated theoretically</t>
+        </is>
+      </c>
+      <c r="C457" t="n">
+        <v>0.7146298289299011</v>
+      </c>
+      <c r="D457" t="inlineStr"/>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>Usman - Mendes</t>
+        </is>
+      </c>
+      <c r="B458" s="3" t="inlineStr">
+        <is>
+          <t>maintainability - functionality</t>
+        </is>
+      </c>
+      <c r="C458" t="n">
+        <v>0.7046252489089966</v>
+      </c>
+      <c r="D458" t="inlineStr"/>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>Usman - Mendes</t>
+        </is>
+      </c>
+      <c r="B459" s="3" t="inlineStr">
+        <is>
+          <t>task - functionality</t>
+        </is>
+      </c>
+      <c r="C459" t="n">
+        <v>0.7033266425132751</v>
+      </c>
+      <c r="D459" t="inlineStr"/>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>Usman - Mendes</t>
+        </is>
+      </c>
+      <c r="B460" s="3" t="inlineStr">
+        <is>
+          <t>implementation - functionality</t>
+        </is>
+      </c>
+      <c r="C460" t="n">
+        <v>0.7415568232536316</v>
+      </c>
+      <c r="D460" t="inlineStr"/>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>Usman - Mendes</t>
+        </is>
+      </c>
+      <c r="B461" s="3" t="inlineStr">
+        <is>
+          <t>non functional requirements.other - functionality</t>
+        </is>
+      </c>
+      <c r="C461" t="n">
+        <v>0.7386948466300964</v>
+      </c>
+      <c r="D461" t="inlineStr"/>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>Usman - Mendes</t>
+        </is>
+      </c>
+      <c r="B462" s="3" t="inlineStr">
+        <is>
+          <t>performance - functionality</t>
+        </is>
+      </c>
+      <c r="C462" t="n">
+        <v>0.7259608507156372</v>
+      </c>
+      <c r="D462" t="inlineStr"/>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>Usman - Mendes</t>
+        </is>
+      </c>
+      <c r="B463" s="3" t="inlineStr">
+        <is>
+          <t>considered - validated theoretically</t>
+        </is>
+      </c>
+      <c r="C463" t="n">
+        <v>0.7386905550956726</v>
+      </c>
+      <c r="D463" t="inlineStr"/>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>Usman - Mendes</t>
+        </is>
+      </c>
+      <c r="B464" s="3" t="inlineStr">
+        <is>
+          <t>considered without any metric - solution-oriented metric</t>
+        </is>
+      </c>
+      <c r="C464" t="n">
+        <v>0.749022364616394</v>
+      </c>
+      <c r="D464" t="inlineStr"/>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>Usman - Mendes</t>
+        </is>
+      </c>
+      <c r="B465" s="3" t="inlineStr">
+        <is>
+          <t>considered without any metric - early size metric</t>
+        </is>
+      </c>
+      <c r="C465" t="n">
+        <v>0.7296102046966553</v>
+      </c>
+      <c r="D465" t="inlineStr"/>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>Usman - Mendes</t>
+        </is>
+      </c>
+      <c r="B466" s="3" t="inlineStr">
+        <is>
+          <t>considered without any metric - problem-oriented metric</t>
+        </is>
+      </c>
+      <c r="C466" t="n">
+        <v>0.7460999488830566</v>
+      </c>
+      <c r="D466" t="inlineStr"/>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>Usman - Mendes</t>
+        </is>
+      </c>
+      <c r="B467" s="3" t="inlineStr">
+        <is>
+          <t>considered without any metric - late size metric</t>
+        </is>
+      </c>
+      <c r="C467" t="n">
+        <v>0.7456703782081604</v>
+      </c>
+      <c r="D467" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
